--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39615619-34AF-46EC-AE57-70CBAB1482BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77C4D24-E9AD-4D9A-81A1-9D6DF5E18632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3605,6 +3605,12 @@
       <c r="D135" s="2">
         <v>141653.39000000001</v>
       </c>
+      <c r="E135">
+        <v>266</v>
+      </c>
+      <c r="F135" s="1">
+        <v>45848</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3625,6 +3631,9 @@
       <c r="F136" s="1">
         <v>45839</v>
       </c>
+      <c r="G136" s="1">
+        <v>45841</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -3645,6 +3654,9 @@
       <c r="F137" s="1">
         <v>45842</v>
       </c>
+      <c r="G137" s="1">
+        <v>45846</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3665,6 +3677,9 @@
       <c r="F138" s="1">
         <v>45842</v>
       </c>
+      <c r="G138" s="1">
+        <v>45846</v>
+      </c>
       <c r="I138">
         <v>13434</v>
       </c>
@@ -3688,6 +3703,9 @@
       <c r="F139" s="1">
         <v>45842</v>
       </c>
+      <c r="G139" s="1">
+        <v>45846</v>
+      </c>
       <c r="I139">
         <v>13435</v>
       </c>
@@ -3710,6 +3728,9 @@
       </c>
       <c r="F140" s="1">
         <v>45842</v>
+      </c>
+      <c r="G140" s="1">
+        <v>45846</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77C4D24-E9AD-4D9A-81A1-9D6DF5E18632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB80C7D-F351-4478-AB36-7A6808D17949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
   <si>
     <t>007/2024</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>019/2025</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,8 +3736,45 @@
         <v>45846</v>
       </c>
     </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>17</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45848</v>
+      </c>
+      <c r="D141" s="2">
+        <v>79435</v>
+      </c>
+      <c r="I141">
+        <v>13526</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142">
+        <v>18</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45848</v>
+      </c>
+      <c r="D142" s="2">
+        <v>89334.17</v>
+      </c>
+      <c r="I142">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D143" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A140" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A142" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB80C7D-F351-4478-AB36-7A6808D17949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D595C3-5D39-4446-B127-E11A6CE91B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t>007/2024</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>CONTRATO</t>
-  </si>
-  <si>
-    <t>019/2025</t>
   </si>
 </sst>
 </file>
@@ -502,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,7 +3752,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B142">
         <v>18</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D595C3-5D39-4446-B127-E11A6CE91B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B44BCC-4497-46D9-9D06-6586D3572FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,6 +3611,9 @@
       <c r="F135" s="1">
         <v>45848</v>
       </c>
+      <c r="G135" s="1">
+        <v>45848</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3746,6 +3749,15 @@
       <c r="D141" s="2">
         <v>79435</v>
       </c>
+      <c r="E141">
+        <v>292</v>
+      </c>
+      <c r="F141" s="1">
+        <v>45853</v>
+      </c>
+      <c r="G141" s="1">
+        <v>45854</v>
+      </c>
       <c r="I141">
         <v>13526</v>
       </c>
@@ -3762,6 +3774,15 @@
       </c>
       <c r="D142" s="2">
         <v>89334.17</v>
+      </c>
+      <c r="E142">
+        <v>293</v>
+      </c>
+      <c r="F142" s="1">
+        <v>45853</v>
+      </c>
+      <c r="G142" s="1">
+        <v>45854</v>
       </c>
       <c r="I142">
         <v>13525</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B44BCC-4497-46D9-9D06-6586D3572FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD9081-AACE-4158-871B-5D386D6DC1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <t>007/2024</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,10 +3789,35 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D143" s="2"/>
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45852</v>
+      </c>
+      <c r="D143" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45849</v>
+      </c>
+      <c r="D144" s="2">
+        <v>56479.88</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A142" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A144" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD9081-AACE-4158-871B-5D386D6DC1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F389CC7B-774A-4EDA-B805-03EE47F06AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>007/2024</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3816,8 +3816,22 @@
         <v>56479.88</v>
       </c>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>12</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45853</v>
+      </c>
+      <c r="D145" s="2">
+        <v>134604.85999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A144" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A145" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F389CC7B-774A-4EDA-B805-03EE47F06AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD849CD5-2825-4595-B845-47F8646543A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,6 +3801,12 @@
       <c r="D143" s="2">
         <v>15000</v>
       </c>
+      <c r="E143">
+        <v>60</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45861</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD849CD5-2825-4595-B845-47F8646543A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F57CD-F4A8-4058-9A80-8CAA0A6944AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,7 +3822,7 @@
         <v>56479.88</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3834,6 +3834,15 @@
       </c>
       <c r="D145" s="2">
         <v>134604.85999999999</v>
+      </c>
+      <c r="E145">
+        <v>6023</v>
+      </c>
+      <c r="F145" s="1">
+        <v>45863</v>
+      </c>
+      <c r="I145">
+        <v>13578</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F57CD-F4A8-4058-9A80-8CAA0A6944AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DDAE5-1067-4F91-9A3F-13AADADC67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$145</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="45">
   <si>
     <t>007/2024</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>EXECUCAO INICIA</t>
+  </si>
+  <si>
+    <t>EXECUCAO FINAL</t>
+  </si>
+  <si>
+    <t>VIGENCIA INICIAL</t>
+  </si>
+  <si>
+    <t>VIGENCIA FINAL</t>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
+  <si>
+    <t>ADITIVO PRAZO E VALOR</t>
   </si>
 </sst>
 </file>
@@ -499,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3853,12 +3872,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>60473.88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45795</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45978</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45795</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45978</v>
+      </c>
+      <c r="H2">
+        <f>C2/354000</f>
+        <v>0.17083016949152541</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DDAE5-1067-4F91-9A3F-13AADADC67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D6117-EDF0-4EB8-A15E-94FCCCEA1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D6117-EDF0-4EB8-A15E-94FCCCEA1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE81F0-2C09-42E5-AE12-0EEC06652514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
   <si>
     <t>007/2024</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>ADITIVO PRAZO E VALOR</t>
+  </si>
+  <si>
+    <t>ADITIVO DE VALOR</t>
   </si>
 </sst>
 </file>
@@ -3872,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,6 +3946,17 @@
         <v>0.17083016949152541</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>22686.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE81F0-2C09-42E5-AE12-0EEC06652514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C05014-E286-4B91-879D-E89005FE63EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
   <si>
     <t>007/2024</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>ADITIVO DE VALOR</t>
+  </si>
+  <si>
+    <t>ADITIVO DE PRAZO</t>
+  </si>
+  <si>
+    <t>11/04/205</t>
   </si>
 </sst>
 </file>
@@ -3875,10 +3881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,6 +3963,34 @@
         <v>22686.63</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45638</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C05014-E286-4B91-879D-E89005FE63EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B35216-6B93-4328-BBC9-C576AFE76E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -529,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3883,7 +3885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B35216-6B93-4328-BBC9-C576AFE76E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB23E98-2743-4E04-8124-CA9FDD1351AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
   <si>
     <t>007/2024</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>11/04/205</t>
+  </si>
+  <si>
+    <t>APOSTILAMENTO</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
@@ -3883,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,6 +3902,7 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3993,6 +3997,168 @@
         <v>45877</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>5310660</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45055</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45419</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45065</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45444</v>
+      </c>
+      <c r="H6">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5511402.9400000004</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5511402.9400000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45784</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45445</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45824</v>
+      </c>
+      <c r="H8">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>5689421.25</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>6622628.7999999998</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="H10">
+        <v>24.704439699999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>7094539.6399999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45785</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46149</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45825</v>
+      </c>
+      <c r="G11" s="1">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>7472178.6699999999</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45234</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45413</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45365</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1638157.9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="H14">
+        <v>24.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB23E98-2743-4E04-8124-CA9FDD1351AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C996CE-04BD-4D82-9B32-7F2DBC77F9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>007/2024</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>APOSTILAMENTO</t>
+  </si>
+  <si>
+    <t>REPROGRAMACAO SEM REFLEXO FINANCEIRO</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,24 +3881,38 @@
         <v>13578</v>
       </c>
     </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45868</v>
+      </c>
+      <c r="D146" s="2">
+        <v>141652.14000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A145" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A146" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
@@ -4159,6 +4176,40 @@
         <v>24.9</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45740</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45919</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45740</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>272714.58</v>
+      </c>
+      <c r="H16">
+        <v>12.5153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C996CE-04BD-4D82-9B32-7F2DBC77F9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EDC14-6EDF-4609-BCD8-2434BD0DC600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3843,6 +3843,9 @@
       <c r="F143" s="1">
         <v>45861</v>
       </c>
+      <c r="G143" s="1">
+        <v>45863</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -3876,6 +3879,9 @@
       </c>
       <c r="F145" s="1">
         <v>45863</v>
+      </c>
+      <c r="G145" s="1">
+        <v>45867</v>
       </c>
       <c r="I145">
         <v>13578</v>
@@ -3905,7 +3911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EDC14-6EDF-4609-BCD8-2434BD0DC600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D14E87-0762-4402-AE72-8419A3E6D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="51">
   <si>
     <t>007/2024</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>REPROGRAMACAO SEM REFLEXO FINANCEIRO</t>
+  </si>
+  <si>
+    <t>ADITIVO DE SUPRESSAO</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3909,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,6 +4219,82 @@
         <v>12.5153</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>174563.8</v>
+      </c>
+      <c r="H17">
+        <v>7.4950000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>445180.33</v>
+      </c>
+      <c r="H18">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45259</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45623</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45331</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45988</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45697</v>
+      </c>
+      <c r="G21" s="1">
+        <v>46061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D14E87-0762-4402-AE72-8419A3E6D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA03E5-F580-4909-8F01-B41A8FCE09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="52">
   <si>
     <t>007/2024</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>ADITIVO DE SUPRESSAO</t>
+  </si>
+  <si>
+    <t>3 do 4</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I146"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +611,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -630,7 +634,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +657,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -806,7 +810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -829,7 +833,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -852,7 +856,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -875,7 +879,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -898,7 +902,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -921,7 +925,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -944,7 +948,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -967,7 +971,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1037,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2682,7 +2686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3779,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3854,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>56479.88</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3904,8 +3908,28 @@
         <v>141652.14000000001</v>
       </c>
     </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45869</v>
+      </c>
+      <c r="D147" s="2">
+        <v>762343.75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A146" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A146" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="009/2022"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3914,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA03E5-F580-4909-8F01-B41A8FCE09AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5573E-305A-4F7C-B02F-43F78D9990BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -539,11 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +610,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +633,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -657,7 +656,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -810,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -833,7 +832,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -856,7 +855,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -879,7 +878,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -902,7 +901,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -925,7 +924,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -948,7 +947,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -971,7 +970,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>56479.88</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3923,13 +3922,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A146" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="009/2022"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A147" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5573E-305A-4F7C-B02F-43F78D9990BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC2146F-2C19-427A-8D42-9EFDF802F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="52">
   <si>
     <t>007/2024</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,9 +3920,29 @@
       <c r="D147" s="2">
         <v>762343.75</v>
       </c>
+      <c r="I147">
+        <v>13747</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45870</v>
+      </c>
+      <c r="D148" s="2">
+        <v>52211.519999999997</v>
+      </c>
+      <c r="I148">
+        <v>13757</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A147" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A148" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC2146F-2C19-427A-8D42-9EFDF802F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45F796-584E-41E3-A9D2-3B08D1370CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="53">
   <si>
     <t>007/2024</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>3 do 4</t>
+  </si>
+  <si>
+    <t>51479,11 (valor da nota após glosa)</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,6 +3869,18 @@
       <c r="D144" s="2">
         <v>56479.88</v>
       </c>
+      <c r="E144">
+        <v>31</v>
+      </c>
+      <c r="F144" s="1">
+        <v>45873</v>
+      </c>
+      <c r="G144" s="1">
+        <v>45880</v>
+      </c>
+      <c r="H144" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -3906,6 +3921,15 @@
       <c r="D146" s="2">
         <v>141652.14000000001</v>
       </c>
+      <c r="E146">
+        <v>297</v>
+      </c>
+      <c r="F146" s="1">
+        <v>45873</v>
+      </c>
+      <c r="G146" s="1">
+        <v>45874</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -3919,6 +3943,15 @@
       </c>
       <c r="D147" s="2">
         <v>762343.75</v>
+      </c>
+      <c r="E147">
+        <v>1003</v>
+      </c>
+      <c r="F147" s="1">
+        <v>45873</v>
+      </c>
+      <c r="G147" s="1">
+        <v>45874</v>
       </c>
       <c r="I147">
         <v>13747</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45F796-584E-41E3-A9D2-3B08D1370CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8728F03-9126-46CC-92A5-D6FEBCEADAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
   <si>
     <t>007/2024</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>51479,11 (valor da nota após glosa)</t>
+  </si>
+  <si>
+    <t>ADITIVO DE PRAZO E VALOR</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
@@ -3982,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,6 +4368,32 @@
         <v>46061</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>45000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45790</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45881</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45790</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45881</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8728F03-9126-46CC-92A5-D6FEBCEADAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E785B-8FF2-429D-B62E-2F1BDFA23D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>007/2024</t>
   </si>
@@ -170,9 +171,6 @@
   </si>
   <si>
     <t>ADITIVO DE PRAZO</t>
-  </si>
-  <si>
-    <t>11/04/205</t>
   </si>
   <si>
     <t>APOSTILAMENTO</t>
@@ -3882,7 +3880,7 @@
         <v>45880</v>
       </c>
       <c r="H144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3939,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1">
         <v>45869</v>
@@ -3988,7 +3986,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,8 +4087,8 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
+      <c r="D5" s="1">
+        <v>45758</v>
       </c>
       <c r="E5" s="1">
         <v>45877</v>
@@ -4127,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>5511402.9400000004</v>
@@ -4166,7 +4164,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>5689421.25</v>
@@ -4216,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>7472178.6699999999</v>
@@ -4283,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>272714.58</v>
@@ -4297,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>174563.8</v>
@@ -4311,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>445180.33</v>
@@ -4345,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4373,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>45000</v>
@@ -4395,6 +4393,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H22" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E785B-8FF2-429D-B62E-2F1BDFA23D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDFABA9-C82A-42A7-B3AE-C8F6E6E8F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
   <si>
     <t>007/2024</t>
   </si>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,8 +3975,25 @@
         <v>13757</v>
       </c>
     </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>13</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45881</v>
+      </c>
+      <c r="D149" s="2">
+        <v>295980.3</v>
+      </c>
+      <c r="I149">
+        <v>13892</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A148" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A149" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3985,7 +4002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDFABA9-C82A-42A7-B3AE-C8F6E6E8F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C092BB7-40CF-4CBB-B7EB-74DA6D61775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
   <si>
     <t>007/2024</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>ADITIVO DE PRAZO E VALOR</t>
+  </si>
+  <si>
+    <t>Parque das nacoes (prox. Tulipas)</t>
+  </si>
+  <si>
+    <t>Corrigir valor da medicao</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,8 +3998,48 @@
         <v>13892</v>
       </c>
     </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45887</v>
+      </c>
+      <c r="D150" s="2">
+        <v>70569.59</v>
+      </c>
+      <c r="H150" t="s">
+        <v>53</v>
+      </c>
+      <c r="I150">
+        <v>13962</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45887</v>
+      </c>
+      <c r="D151" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H151" t="s">
+        <v>54</v>
+      </c>
+      <c r="I151">
+        <v>13968</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A149" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C092BB7-40CF-4CBB-B7EB-74DA6D61775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302AD2D-0130-41D5-B974-44BBB555E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>007/2024</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Corrigir valor da medicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADITIVO DE VALOR </t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4046,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,6 +4458,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>750497.66</v>
+      </c>
+      <c r="H23">
+        <v>17.348874299999999</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H22" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302AD2D-0130-41D5-B974-44BBB555E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279C63E-4CC6-4E67-9284-D102AF75447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
   <si>
     <t>007/2024</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t xml:space="preserve">ADITIVO DE VALOR </t>
+  </si>
+  <si>
+    <t>010/2024</t>
+  </si>
+  <si>
+    <t>APOSTILAMENTO (DOTACAO ORÇAMENTARIA)</t>
   </si>
 </sst>
 </file>
@@ -4049,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,8 +4478,30 @@
         <v>17.348874299999999</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45827</v>
+      </c>
+      <c r="G25" s="1">
+        <v>46191</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H22" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279C63E-4CC6-4E67-9284-D102AF75447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FF66B-024B-44AB-937F-8D2749EA3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
   <si>
     <t>007/2024</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Parque das nacoes (prox. Tulipas)</t>
-  </si>
-  <si>
-    <t>Corrigir valor da medicao</t>
   </si>
   <si>
     <t xml:space="preserve">ADITIVO DE VALOR </t>
@@ -558,10 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +627,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -652,7 +650,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -675,7 +673,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -698,7 +696,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -724,7 +722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -750,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -776,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -802,7 +800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -828,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -851,7 +849,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -874,7 +872,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -897,7 +895,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -920,7 +918,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -943,7 +941,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -966,7 +964,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -989,7 +987,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1536,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1559,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1674,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1697,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1835,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1906,7 +1904,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +1996,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2042,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2111,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2203,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2274,7 +2272,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2309,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2401,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2493,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2516,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2656,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +2892,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2938,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2963,7 +2961,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3007,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3148,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +3211,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3257,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3515,7 +3513,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3584,7 +3582,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +3988,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4038,17 +4036,20 @@
         <v>45887</v>
       </c>
       <c r="D151" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H151" t="s">
-        <v>54</v>
+        <v>118750</v>
       </c>
       <c r="I151">
         <v>13968</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="018/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4057,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -4469,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>750497.66</v>
@@ -4480,15 +4481,15 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FF66B-024B-44AB-937F-8D2749EA3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC45E4E-D9FF-4EC0-A1A8-EA60EEB27861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="57">
   <si>
     <t>007/2024</t>
   </si>
@@ -558,7 +558,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
@@ -4056,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4322,7 +4322,7 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1638157.9</v>
+        <v>326580.40000000002</v>
       </c>
       <c r="D14" s="1"/>
       <c r="H14">
@@ -4499,6 +4499,88 @@
       </c>
       <c r="G25" s="1">
         <v>46191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45414</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45593</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45485</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>607822.56999999995</v>
+      </c>
+      <c r="H27">
+        <v>37.103999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>53124.77</v>
+      </c>
+      <c r="H28">
+        <v>3.2429999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>848776.22</v>
+      </c>
+      <c r="H29">
+        <v>51.812800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45594</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45773</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45605</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45784</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC45E4E-D9FF-4EC0-A1A8-EA60EEB27861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D3938-D174-47C7-A405-BEDB1CF2F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -4059,7 +4059,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D3938-D174-47C7-A405-BEDB1CF2F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C78B5-4DE8-47B6-9EA1-AC04E684A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -555,10 +555,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -627,7 +626,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -650,7 +649,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -673,7 +672,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -696,7 +695,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -722,7 +721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -748,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -774,7 +773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -800,7 +799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -826,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -849,7 +848,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -872,7 +871,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -895,7 +894,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -918,7 +917,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -941,7 +940,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -964,7 +963,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -987,7 +986,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3076,7 +3075,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4043,13 +4042,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="018/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4058,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C78B5-4DE8-47B6-9EA1-AC04E684A003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C56DB-E95E-4E7C-9116-F0EF4ACCE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3999,6 +3999,12 @@
       </c>
       <c r="D149" s="2">
         <v>295980.3</v>
+      </c>
+      <c r="E149">
+        <v>6083</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45894</v>
       </c>
       <c r="I149">
         <v>13892</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C56DB-E95E-4E7C-9116-F0EF4ACCE90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEF4934-D86D-4171-9814-9B27FF7A354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,6 +4006,9 @@
       <c r="F149" s="1">
         <v>45894</v>
       </c>
+      <c r="G149" s="1">
+        <v>45895</v>
+      </c>
       <c r="I149">
         <v>13892</v>
       </c>
@@ -4022,6 +4025,15 @@
       </c>
       <c r="D150" s="2">
         <v>70569.59</v>
+      </c>
+      <c r="E150">
+        <v>299</v>
+      </c>
+      <c r="F150" s="1">
+        <v>45894</v>
+      </c>
+      <c r="G150" s="1">
+        <v>45897</v>
       </c>
       <c r="H150" t="s">
         <v>53</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEF4934-D86D-4171-9814-9B27FF7A354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA563327-2E33-4664-915F-584CC315DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
   <si>
     <t>007/2024</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H150" sqref="H150"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4067,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,6 +4594,26 @@
         <v>45784</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45878</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45922</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45882</v>
+      </c>
+      <c r="G31" s="1">
+        <v>46001</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA563327-2E33-4664-915F-584CC315DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86705DDC-78E5-4031-B73D-D58C0085CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,7 +4053,7 @@
         <v>45887</v>
       </c>
       <c r="D151" s="2">
-        <v>118750</v>
+        <v>117309.5</v>
       </c>
       <c r="I151">
         <v>13968</v>
@@ -4069,7 +4069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86705DDC-78E5-4031-B73D-D58C0085CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CA2C3-24AE-4CDB-9E03-F9B5F8FFEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="57">
   <si>
     <t>007/2024</t>
   </si>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
@@ -4067,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,6 +4614,96 @@
         <v>46001</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45448</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45568</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45688</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45807</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45694</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45808</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45927</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45874</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>824320.8</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CA2C3-24AE-4CDB-9E03-F9B5F8FFEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65C2BD-E0BC-4877-B38E-C5A76E60A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="57">
   <si>
     <t>007/2024</t>
   </si>
@@ -4067,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,6 +4704,120 @@
         <v>25</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45211</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45331</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45450</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45420</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45451</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45570</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45540</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45571</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45690</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45660</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45691</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45810</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45780</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45811</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45930</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45901</v>
+      </c>
+      <c r="G43" s="1">
+        <v>46020</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65C2BD-E0BC-4877-B38E-C5A76E60A87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFE2EB-CB21-48C6-A7B1-86298FC928D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="58">
   <si>
     <t>007/2024</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>APOSTILAMENTO (DOTACAO ORÇAMENTARIA)</t>
+  </si>
+  <si>
+    <t>ADIITVO DE PRAZO</t>
   </si>
 </sst>
 </file>
@@ -4067,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,6 +4821,34 @@
         <v>46020</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45679</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45799</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45918</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFE2EB-CB21-48C6-A7B1-86298FC928D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DC9B5-8FF9-4FAA-B5DB-37A490D83E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="58">
   <si>
     <t>007/2024</t>
   </si>
@@ -4070,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4849,6 +4849,46 @@
         <v>45918</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45433</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45797</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45509</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45798</v>
+      </c>
+      <c r="E47" s="1">
+        <v>46162</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45874</v>
+      </c>
+      <c r="G47" s="1">
+        <v>46238</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DC9B5-8FF9-4FAA-B5DB-37A490D83E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF87706-5021-4158-BD00-540DBCEEB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
   <si>
     <t>007/2024</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>ADIITVO DE PRAZO</t>
+  </si>
+  <si>
+    <t>4 do 4</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,8 +4065,25 @@
         <v>13968</v>
       </c>
     </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45901</v>
+      </c>
+      <c r="D152" s="2">
+        <v>571025.05000000005</v>
+      </c>
+      <c r="I152">
+        <v>14111</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A151" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A152" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4072,7 +4092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF87706-5021-4158-BD00-540DBCEEB80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E518BA3E-A13F-4BE4-A448-60C380F133C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
   <si>
     <t>007/2024</t>
   </si>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,6 +4080,29 @@
       </c>
       <c r="I152">
         <v>14111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>15</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45881</v>
+      </c>
+      <c r="D153" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E153">
+        <v>61</v>
+      </c>
+      <c r="F153" s="1">
+        <v>45898</v>
+      </c>
+      <c r="I153">
+        <v>14110</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E518BA3E-A13F-4BE4-A448-60C380F133C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B44FBB-15F3-450F-9E72-781BB5C21A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B44FBB-15F3-450F-9E72-781BB5C21A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6EB465-4F11-4176-B9B5-27B4248AD8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6EB465-4F11-4176-B9B5-27B4248AD8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C410941-DA62-476B-AE33-CDB1285BE25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="60">
   <si>
     <t>007/2024</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>4 do 4</t>
+  </si>
+  <si>
+    <t>004/2022</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
@@ -4113,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,6 +4935,102 @@
         <v>46238</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45020</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45385</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45020</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45386</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45750</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45386</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51">
+        <v>456065.43</v>
+      </c>
+      <c r="H51">
+        <v>24.927</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45751</v>
+      </c>
+      <c r="E52" s="1">
+        <v>46115</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45751</v>
+      </c>
+      <c r="G52" s="1">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>561979.51</v>
+      </c>
+      <c r="H53">
+        <v>24.622599999999998</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C410941-DA62-476B-AE33-CDB1285BE25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754AA702-0EE3-4910-9352-899C0118670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="60">
   <si>
     <t>007/2024</t>
   </si>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,7 +3230,7 @@
         <v>45750</v>
       </c>
       <c r="D116" s="2">
-        <v>26767.08</v>
+        <v>26757.08</v>
       </c>
       <c r="E116">
         <v>26</v>
@@ -4108,8 +4108,22 @@
         <v>14110</v>
       </c>
     </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45910</v>
+      </c>
+      <c r="D154" s="2">
+        <v>20460</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A152" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A154" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4118,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754AA702-0EE3-4910-9352-899C0118670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D342174-F8E8-432F-AFC5-6BC47509253D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
   <si>
     <t>007/2024</t>
   </si>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,6 +4064,15 @@
       <c r="D151" s="2">
         <v>117309.5</v>
       </c>
+      <c r="E151">
+        <v>287</v>
+      </c>
+      <c r="F151" s="1">
+        <v>45904</v>
+      </c>
+      <c r="G151" s="1">
+        <v>45904</v>
+      </c>
       <c r="I151">
         <v>13968</v>
       </c>
@@ -4122,8 +4131,25 @@
         <v>20460</v>
       </c>
     </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45910</v>
+      </c>
+      <c r="D155" s="2">
+        <v>290639.32</v>
+      </c>
+      <c r="I155">
+        <v>14221</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A154" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A155" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D342174-F8E8-432F-AFC5-6BC47509253D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E1476-B045-495E-A5ED-4499C3597C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="61">
   <si>
     <t>007/2024</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>004/2022</t>
+  </si>
+  <si>
+    <t>003/2025</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,6 +4149,222 @@
       </c>
       <c r="I155">
         <v>14221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D156" s="2">
+        <v>10675.11</v>
+      </c>
+      <c r="E156">
+        <v>87</v>
+      </c>
+      <c r="F156" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45800</v>
+      </c>
+      <c r="I156">
+        <v>12856</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D157" s="2">
+        <v>82069.490000000005</v>
+      </c>
+      <c r="E157">
+        <v>90</v>
+      </c>
+      <c r="F157" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45800</v>
+      </c>
+      <c r="I157">
+        <v>12857</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>60</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D158" s="2">
+        <v>73309.58</v>
+      </c>
+      <c r="E158">
+        <v>91</v>
+      </c>
+      <c r="F158" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45800</v>
+      </c>
+      <c r="I158">
+        <v>12858</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D159" s="2">
+        <v>7638.07</v>
+      </c>
+      <c r="E159">
+        <v>92</v>
+      </c>
+      <c r="F159" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45800</v>
+      </c>
+      <c r="I159">
+        <v>12859</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D160" s="2">
+        <v>54950.98</v>
+      </c>
+      <c r="E160">
+        <v>93</v>
+      </c>
+      <c r="F160" s="1">
+        <v>45799</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45800</v>
+      </c>
+      <c r="I160">
+        <v>12860</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45832</v>
+      </c>
+      <c r="D161" s="2">
+        <v>38039.54</v>
+      </c>
+      <c r="E161">
+        <v>102</v>
+      </c>
+      <c r="F161" s="1">
+        <v>45841</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45845</v>
+      </c>
+      <c r="I161">
+        <v>13337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45832</v>
+      </c>
+      <c r="D162" s="2">
+        <v>23258.68</v>
+      </c>
+      <c r="E162">
+        <v>103</v>
+      </c>
+      <c r="F162" s="1">
+        <v>45841</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45845</v>
+      </c>
+      <c r="I162">
+        <v>13337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>60</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45901</v>
+      </c>
+      <c r="D163" s="2">
+        <v>97484.52</v>
+      </c>
+      <c r="I163">
+        <v>14138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45908</v>
+      </c>
+      <c r="D164" s="2">
+        <v>253844.2</v>
+      </c>
+      <c r="I164">
+        <v>14206</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E1476-B045-495E-A5ED-4499C3597C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7906E-CFBF-471A-8B6C-28918104FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="61">
   <si>
     <t>007/2024</t>
   </si>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,8 +4367,22 @@
         <v>14206</v>
       </c>
     </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45917</v>
+      </c>
+      <c r="D165" s="2">
+        <v>91654.46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A155" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A165" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7906E-CFBF-471A-8B6C-28918104FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726185E9-BCE2-4162-9DAB-2B810A830514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="62">
   <si>
     <t>007/2024</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>003/2025</t>
+  </si>
+  <si>
+    <t>ADITIVO PORTO FERREIRA</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4381,8 +4384,34 @@
         <v>91654.46</v>
       </c>
     </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45895</v>
+      </c>
+      <c r="D166" s="2">
+        <v>750015.33</v>
+      </c>
+      <c r="E166">
+        <v>149</v>
+      </c>
+      <c r="F166" s="1">
+        <v>45901</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45904</v>
+      </c>
+      <c r="H166" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A165" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A166" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726185E9-BCE2-4162-9DAB-2B810A830514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB3783-3704-4889-A83A-4959FE556FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
   <si>
     <t>007/2024</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>ADITIVO PORTO FERREIRA</t>
+  </si>
+  <si>
+    <t>Cassino / Pq Nacoes</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,6 +4385,18 @@
       </c>
       <c r="D165" s="2">
         <v>91654.46</v>
+      </c>
+      <c r="E165">
+        <v>301</v>
+      </c>
+      <c r="F165" s="1">
+        <v>45918</v>
+      </c>
+      <c r="H165" t="s">
+        <v>62</v>
+      </c>
+      <c r="I165">
+        <v>14300</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAB3783-3704-4889-A83A-4959FE556FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB1B8D-4D65-438D-AD37-9E042BA973A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="63">
   <si>
     <t>007/2024</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5348,6 +5348,142 @@
         <v>24.622599999999998</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45418</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45597</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45527</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>68330.58</v>
+      </c>
+      <c r="H55">
+        <v>3.5918095000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45598</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45717</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45707</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45718</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45838</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45897</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45887</v>
+      </c>
+      <c r="G60" s="1">
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45898</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45957</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45947</v>
+      </c>
+      <c r="G61" s="1">
+        <v>46006</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB1B8D-4D65-438D-AD37-9E042BA973A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452ADD41-399B-4D9D-A9DA-67575EE9A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="63">
   <si>
     <t>007/2024</t>
   </si>
@@ -4433,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5484,6 +5484,40 @@
         <v>46006</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45752</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45931</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45925</v>
+      </c>
+      <c r="G62" s="1">
+        <v>46289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>339284.68</v>
+      </c>
+      <c r="H63">
+        <v>24.99</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452ADD41-399B-4D9D-A9DA-67575EE9A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F810CF-E806-4435-ADCC-6EEBA986CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
   <si>
     <t>007/2024</t>
   </si>
@@ -4433,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,6 +5518,48 @@
         <v>24.99</v>
       </c>
     </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45743</v>
+      </c>
+      <c r="E64" s="1">
+        <v>46107</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45743</v>
+      </c>
+      <c r="G64" s="1">
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2">
+        <v>557026.77</v>
+      </c>
+      <c r="H66">
+        <v>48.59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F810CF-E806-4435-ADCC-6EEBA986CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FBFA1-197B-4BCE-AE26-A5E50C06E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="66">
   <si>
     <t>007/2024</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>Cassino / Pq Nacoes</t>
+  </si>
+  <si>
+    <t>025/2022</t>
+  </si>
+  <si>
+    <t>ADITIVO DE VALOR E PRAZO</t>
+  </si>
+  <si>
+    <t>002/2024</t>
   </si>
 </sst>
 </file>
@@ -254,11 +263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4433,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,6 +5570,128 @@
         <v>48.59</v>
       </c>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45184</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45363</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45177</v>
+      </c>
+      <c r="G68" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45364</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>26106.95</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45514</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45663</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45542</v>
+      </c>
+      <c r="G70" s="1">
+        <v>45906</v>
+      </c>
+      <c r="H70" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45907</v>
+      </c>
+      <c r="G71" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45676</v>
+      </c>
+      <c r="E72" s="1">
+        <v>46041</v>
+      </c>
+      <c r="F72" s="1">
+        <v>45676</v>
+      </c>
+      <c r="G72" s="1">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>143481.88</v>
+      </c>
+      <c r="H73">
+        <v>4.7679</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FBFA1-197B-4BCE-AE26-A5E50C06E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C7D70-368D-4A39-A039-48781F6556A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="66">
   <si>
     <t>007/2024</t>
   </si>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,6 +4149,15 @@
       <c r="D154" s="2">
         <v>20460</v>
       </c>
+      <c r="E154">
+        <v>32</v>
+      </c>
+      <c r="F154" s="1">
+        <v>45917</v>
+      </c>
+      <c r="G154" s="1">
+        <v>45919</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -4362,6 +4371,15 @@
       <c r="D163" s="2">
         <v>97484.52</v>
       </c>
+      <c r="E163">
+        <v>118</v>
+      </c>
+      <c r="F163" s="1">
+        <v>45904</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45915</v>
+      </c>
       <c r="I163">
         <v>14138</v>
       </c>
@@ -4379,6 +4397,15 @@
       <c r="D164" s="2">
         <v>253844.2</v>
       </c>
+      <c r="E164">
+        <v>121</v>
+      </c>
+      <c r="F164" s="1">
+        <v>45918</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45922</v>
+      </c>
       <c r="I164">
         <v>14206</v>
       </c>
@@ -4402,6 +4429,9 @@
       <c r="F165" s="1">
         <v>45918</v>
       </c>
+      <c r="G165" s="1">
+        <v>45919</v>
+      </c>
       <c r="H165" t="s">
         <v>62</v>
       </c>
@@ -4435,8 +4465,31 @@
         <v>61</v>
       </c>
     </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45916</v>
+      </c>
+      <c r="D167" s="2">
+        <v>66938.34</v>
+      </c>
+      <c r="E167">
+        <v>122</v>
+      </c>
+      <c r="F167" s="1">
+        <v>45918</v>
+      </c>
+      <c r="G167" s="1">
+        <v>45922</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A166" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A167" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4445,7 +4498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C7D70-368D-4A39-A039-48781F6556A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCF66A-0D4F-4BAE-989E-54E965AEB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="66">
   <si>
     <t>007/2024</t>
   </si>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
@@ -4496,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,6 +5745,106 @@
         <v>4.7679</v>
       </c>
     </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45034</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45213</v>
+      </c>
+      <c r="F74" s="1">
+        <v>45184</v>
+      </c>
+      <c r="G74" s="1">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45214</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45393</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45306</v>
+      </c>
+      <c r="G75" s="1">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45394</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45573</v>
+      </c>
+      <c r="F76" s="1">
+        <v>45427</v>
+      </c>
+      <c r="G76" s="1">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45574</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45753</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45611</v>
+      </c>
+      <c r="G77" s="1">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45754</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45933</v>
+      </c>
+      <c r="F78" s="1">
+        <v>45792</v>
+      </c>
+      <c r="G78" s="1">
+        <v>45975</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCF66A-0D4F-4BAE-989E-54E965AEB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBF216-95F4-4122-A28E-2D294AA9A760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="66">
   <si>
     <t>007/2024</t>
   </si>
@@ -4496,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,8 +5845,45 @@
         <v>45975</v>
       </c>
     </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45923</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45967</v>
+      </c>
+      <c r="H79">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E80" s="1">
+        <v>46050</v>
+      </c>
+      <c r="F80" s="1">
+        <v>46021</v>
+      </c>
+      <c r="G80" s="1">
+        <v>46140</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:H80" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBF216-95F4-4122-A28E-2D294AA9A760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12FD3FF-CD39-4B99-986B-FDBEF570FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
   <si>
     <t>007/2024</t>
   </si>
@@ -583,10 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I167"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +724,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -749,7 +750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -801,7 +802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -827,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -853,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -876,7 +877,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -899,7 +900,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -922,7 +923,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -945,7 +946,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -968,7 +969,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -991,7 +992,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3445,7 +3446,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>60</v>
       </c>
@@ -4488,8 +4489,42 @@
         <v>45922</v>
       </c>
     </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>15</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45932</v>
+      </c>
+      <c r="D168" s="2">
+        <v>80671.77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45931</v>
+      </c>
+      <c r="D169" s="2">
+        <v>316000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A167" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A168" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="007/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4498,7 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12FD3FF-CD39-4B99-986B-FDBEF570FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F437C68-9AB1-401B-8E57-0F8A31BB79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="67">
   <si>
     <t>007/2024</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>002/2024</t>
+  </si>
+  <si>
+    <t>5 do 4</t>
   </si>
 </sst>
 </file>
@@ -583,11 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +726,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -750,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -776,7 +778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -802,7 +804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -828,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -854,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -877,7 +879,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -900,7 +902,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -923,7 +925,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -946,7 +948,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -969,7 +971,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -992,7 +994,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +1198,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1474,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2498,7 +2500,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3058,7 +3060,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3218,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3520,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4110,11 +4112,20 @@
       <c r="D152" s="2">
         <v>571025.05000000005</v>
       </c>
+      <c r="E152">
+        <v>1042</v>
+      </c>
+      <c r="F152" s="1">
+        <v>45903</v>
+      </c>
+      <c r="G152" s="1">
+        <v>45904</v>
+      </c>
       <c r="I152">
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4148,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4171,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -4203,7 +4214,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -4229,7 +4240,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -4255,7 +4266,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4318,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -4359,7 +4370,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>60</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>60</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4440,7 +4451,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4466,7 +4477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>60</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4517,14 +4528,25 @@
         <v>316000</v>
       </c>
     </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45933</v>
+      </c>
+      <c r="D170" s="2">
+        <v>611283.4</v>
+      </c>
+      <c r="I170">
+        <v>14491</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A168" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="007/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A170" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F437C68-9AB1-401B-8E57-0F8A31BB79A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673777B2-9145-46E7-93E6-311F90D58657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,6 +4512,15 @@
       </c>
       <c r="D168" s="2">
         <v>80671.77</v>
+      </c>
+      <c r="E168">
+        <v>303</v>
+      </c>
+      <c r="F168" s="1">
+        <v>45936</v>
+      </c>
+      <c r="I168">
+        <v>14477</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673777B2-9145-46E7-93E6-311F90D58657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01142723-8CE0-42A4-A339-D7D6BF7A2672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,6 +4183,15 @@
       </c>
       <c r="D155" s="2">
         <v>290639.32</v>
+      </c>
+      <c r="E155">
+        <v>292</v>
+      </c>
+      <c r="F155" s="1">
+        <v>45925</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45926</v>
       </c>
       <c r="I155">
         <v>14221</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01142723-8CE0-42A4-A339-D7D6BF7A2672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2117C905-98DA-4443-B6FD-81889AC38B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,6 +4527,9 @@
       </c>
       <c r="F168" s="1">
         <v>45936</v>
+      </c>
+      <c r="G168" s="1">
+        <v>45937</v>
       </c>
       <c r="I168">
         <v>14477</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2117C905-98DA-4443-B6FD-81889AC38B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA07A9E-2003-4272-A5DC-792F1BCC744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="67">
   <si>
     <t>007/2024</t>
   </si>
@@ -237,6 +237,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,12 +269,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
@@ -4574,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,8 +5964,34 @@
         <v>46140</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81">
+        <v>1146381.42</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45919</v>
+      </c>
+      <c r="E81" s="1">
+        <v>46008</v>
+      </c>
+      <c r="F81" s="1">
+        <v>45920</v>
+      </c>
+      <c r="G81" s="1">
+        <v>46099</v>
+      </c>
+      <c r="H81" s="5">
+        <v>19.106356999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H80" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:H81" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA07A9E-2003-4272-A5DC-792F1BCC744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4971F1B6-571E-4A48-9807-44D16D026404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="67">
   <si>
     <t>007/2024</t>
   </si>
@@ -238,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -275,7 +275,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1">
         <v>45849</v>
@@ -4570,8 +4570,22 @@
         <v>14491</v>
       </c>
     </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45936</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8367.6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A170" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A171" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4580,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4971F1B6-571E-4A48-9807-44D16D026404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D593595D-0A3D-47FC-9835-6E0D6F94D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,6 +4551,15 @@
       </c>
       <c r="D169" s="2">
         <v>316000</v>
+      </c>
+      <c r="E169">
+        <v>29</v>
+      </c>
+      <c r="F169" s="1">
+        <v>45945</v>
+      </c>
+      <c r="G169" s="1">
+        <v>45946</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D593595D-0A3D-47FC-9835-6E0D6F94D516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD79A5D-0E84-4DEB-9F2D-33187B96C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="68">
   <si>
     <t>007/2024</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>5 do 4</t>
+  </si>
+  <si>
+    <t>Recurso proprio (interligacao)</t>
   </si>
 </sst>
 </file>
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4593,8 +4596,28 @@
         <v>8367.6</v>
       </c>
     </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1">
+        <v>45950</v>
+      </c>
+      <c r="D172" s="2">
+        <v>4375.47</v>
+      </c>
+      <c r="H172" t="s">
+        <v>67</v>
+      </c>
+      <c r="I172">
+        <v>14663</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A171" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A172" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD79A5D-0E84-4DEB-9F2D-33187B96C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51E8CB-79FF-4F54-9CF2-8CA224F86F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+      <selection activeCell="D126" sqref="D126:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4577,6 +4577,15 @@
       </c>
       <c r="D170" s="2">
         <v>611283.4</v>
+      </c>
+      <c r="E170">
+        <v>1060</v>
+      </c>
+      <c r="F170" s="1">
+        <v>45940</v>
+      </c>
+      <c r="G170" s="1">
+        <v>45945</v>
       </c>
       <c r="I170">
         <v>14491</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51E8CB-79FF-4F54-9CF2-8CA224F86F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B274F0F-5DF6-4DD4-BD1E-3887098ABB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="68">
   <si>
     <t>007/2024</t>
   </si>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126:D170"/>
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,8 +4625,25 @@
         <v>14663</v>
       </c>
     </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>16</v>
+      </c>
+      <c r="C173" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D173" s="2">
+        <v>65413.96</v>
+      </c>
+      <c r="I173">
+        <v>14755</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A172" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A173" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B274F0F-5DF6-4DD4-BD1E-3887098ABB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0964EB0-140E-40DB-A438-7EFDD44E5E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="72">
   <si>
     <t>007/2024</t>
   </si>
@@ -191,9 +191,6 @@
     <t>ADITIVO DE PRAZO E VALOR</t>
   </si>
   <si>
-    <t>Parque das nacoes (prox. Tulipas)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADITIVO DE VALOR </t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>ADITIVO PORTO FERREIRA</t>
   </si>
   <si>
-    <t>Cassino / Pq Nacoes</t>
-  </si>
-  <si>
     <t>025/2022</t>
   </si>
   <si>
@@ -234,6 +228,24 @@
   </si>
   <si>
     <t>Recurso proprio (interligacao)</t>
+  </si>
+  <si>
+    <t>conferida</t>
+  </si>
+  <si>
+    <t>Parque das nacoes (prox. Tulipas) conferida</t>
+  </si>
+  <si>
+    <t>Cassino / Pq Nacoes conferida</t>
+  </si>
+  <si>
+    <t>conferida (acumulado errado)</t>
+  </si>
+  <si>
+    <t>conferida (acumulado anterior 0,24 a mais)</t>
+  </si>
+  <si>
+    <t>conferida (acumulado anterior 0,13 a mais)</t>
   </si>
 </sst>
 </file>
@@ -595,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +897,9 @@
       <c r="G11" s="1">
         <v>45411</v>
       </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -908,6 +923,9 @@
       <c r="G12" s="1">
         <v>45457</v>
       </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -931,6 +949,9 @@
       <c r="G13" s="1">
         <v>45478</v>
       </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -954,6 +975,9 @@
       <c r="G14" s="1">
         <v>45511</v>
       </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -977,6 +1001,9 @@
       <c r="G15" s="1">
         <v>45567</v>
       </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1000,8 +1027,11 @@
       <c r="G16" s="1">
         <v>45567</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1023,8 +1053,11 @@
       <c r="G17" s="1">
         <v>45582</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1043,8 +1076,11 @@
       <c r="F18" s="1">
         <v>45603</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1103,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1126,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1149,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1159,7 +1195,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1241,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1264,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1287,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1310,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1333,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1356,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1379,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2138,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2161,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2184,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2207,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2193,8 +2229,11 @@
       <c r="G68" s="1">
         <v>45705</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2256,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2240,7 +2279,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2302,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2286,7 +2325,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +2371,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2385,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2408,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2392,7 +2431,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2454,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2477,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3181,6 +3220,9 @@
       <c r="G112" s="1">
         <v>45757</v>
       </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
       <c r="I112">
         <v>12400</v>
       </c>
@@ -3664,6 +3706,9 @@
       <c r="G133" s="1">
         <v>45834</v>
       </c>
+      <c r="H133" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -3805,6 +3850,9 @@
       <c r="G139" s="1">
         <v>45846</v>
       </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
       <c r="I139">
         <v>13435</v>
       </c>
@@ -4074,7 +4122,7 @@
         <v>45897</v>
       </c>
       <c r="H150" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="I150">
         <v>13962</v>
@@ -4111,7 +4159,7 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C152" s="1">
         <v>45901</v>
@@ -4206,7 +4254,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4232,7 +4280,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -4258,7 +4306,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -4284,7 +4332,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -4310,7 +4358,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -4336,7 +4384,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -4362,7 +4410,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -4388,7 +4436,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -4414,7 +4462,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -4461,7 +4509,7 @@
         <v>45919</v>
       </c>
       <c r="H165" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I165">
         <v>14300</v>
@@ -4490,12 +4538,12 @@
         <v>45904</v>
       </c>
       <c r="H166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -4570,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C170" s="1">
         <v>45933</v>
@@ -4619,7 +4667,7 @@
         <v>4375.47</v>
       </c>
       <c r="H172" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I172">
         <v>14663</v>
@@ -5064,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>750497.66</v>
@@ -5075,15 +5123,15 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -5230,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5420,7 +5468,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1">
         <v>45799</v>
@@ -5471,7 +5519,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -5491,7 +5539,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -5499,7 +5547,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -5519,7 +5567,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -5533,7 +5581,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -5553,7 +5601,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>45</v>
@@ -5779,7 +5827,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -5793,7 +5841,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
@@ -5813,7 +5861,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
@@ -5827,10 +5875,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70">
         <v>26106.95</v>
@@ -5853,7 +5901,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
@@ -5867,7 +5915,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -5887,7 +5935,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0964EB0-140E-40DB-A438-7EFDD44E5E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD28C8-FA06-43D2-ACFE-049D89E65EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="72">
   <si>
     <t>007/2024</t>
   </si>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,6 +4666,12 @@
       <c r="D172" s="2">
         <v>4375.47</v>
       </c>
+      <c r="E172">
+        <v>34</v>
+      </c>
+      <c r="F172" s="1">
+        <v>45965</v>
+      </c>
       <c r="H172" t="s">
         <v>65</v>
       </c>
@@ -4690,8 +4696,25 @@
         <v>14755</v>
       </c>
     </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D174" s="2">
+        <v>804000</v>
+      </c>
+      <c r="I174">
+        <v>14741</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A173" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A174" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD28C8-FA06-43D2-ACFE-049D89E65EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29420910-E5E8-45CC-AC14-68F25A4DD62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="74">
   <si>
     <t>007/2024</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>conferida (acumulado anterior 0,13 a mais)</t>
+  </si>
+  <si>
+    <t>6 do 4</t>
+  </si>
+  <si>
+    <t>os. = 2.942,38m² / med=2821,96m²</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,8 +4719,28 @@
         <v>14741</v>
       </c>
     </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>72</v>
+      </c>
+      <c r="C175" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D175" s="2">
+        <v>658021.80000000005</v>
+      </c>
+      <c r="H175" t="s">
+        <v>73</v>
+      </c>
+      <c r="I175">
+        <v>14754</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A174" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A175" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29420910-E5E8-45CC-AC14-68F25A4DD62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6448485-ED20-4085-AA43-D55578D8B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="82">
   <si>
     <t>007/2024</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>os. = 2.942,38m² / med=2821,96m²</t>
+  </si>
+  <si>
+    <t>1 do 1</t>
+  </si>
+  <si>
+    <t>2 do 1</t>
+  </si>
+  <si>
+    <t>3 do 1</t>
+  </si>
+  <si>
+    <t>4 do 1</t>
+  </si>
+  <si>
+    <t>5 do 1</t>
+  </si>
+  <si>
+    <t>6 do 1</t>
+  </si>
+  <si>
+    <t>7 do 1</t>
+  </si>
+  <si>
+    <t>8 do 1</t>
   </si>
 </sst>
 </file>
@@ -611,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,6 +4761,286 @@
       </c>
       <c r="I175">
         <v>14754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>45323</v>
+      </c>
+      <c r="D176" s="2">
+        <v>175544.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" s="1">
+        <v>45350</v>
+      </c>
+      <c r="D177" s="2">
+        <v>175544.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1">
+        <v>45382</v>
+      </c>
+      <c r="D178" s="2">
+        <v>223192.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1">
+        <v>45414</v>
+      </c>
+      <c r="D179" s="2">
+        <v>240746.47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>63</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180" s="1">
+        <v>45446</v>
+      </c>
+      <c r="D180" s="2">
+        <v>240746.47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>63</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181" s="1">
+        <v>45476</v>
+      </c>
+      <c r="D181" s="2">
+        <v>240746.47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>63</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D182" s="2">
+        <v>458922.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45540</v>
+      </c>
+      <c r="D183" s="2">
+        <v>250777</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184">
+        <v>9</v>
+      </c>
+      <c r="C184" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D184" s="2">
+        <v>250778</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>63</v>
+      </c>
+      <c r="B185">
+        <v>10</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45601</v>
+      </c>
+      <c r="D185" s="2">
+        <v>250778.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>63</v>
+      </c>
+      <c r="B186">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45639</v>
+      </c>
+      <c r="D186" s="2">
+        <v>250777.04</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187">
+        <v>12</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45670</v>
+      </c>
+      <c r="D187" s="2">
+        <v>250777.04</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45712</v>
+      </c>
+      <c r="D188" s="2">
+        <v>250777</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45726</v>
+      </c>
+      <c r="D189" s="2">
+        <v>250777</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>63</v>
+      </c>
+      <c r="B190" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D190" s="2">
+        <v>286649.17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>63</v>
+      </c>
+      <c r="B191" t="s">
+        <v>77</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45786</v>
+      </c>
+      <c r="D191" s="2">
+        <v>262734.39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45814</v>
+      </c>
+      <c r="D192" s="2">
+        <v>262734.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45845</v>
+      </c>
+      <c r="D193" s="2">
+        <v>262734.39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" t="s">
+        <v>80</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45876</v>
+      </c>
+      <c r="D194" s="2">
+        <v>262734.39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" t="s">
+        <v>81</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D195" s="2">
+        <v>262734.39</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6448485-ED20-4085-AA43-D55578D8B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5734A-C4A5-4C90-8699-1624E32489A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,6 +4722,12 @@
       <c r="D173" s="2">
         <v>65413.96</v>
       </c>
+      <c r="E173">
+        <v>312</v>
+      </c>
+      <c r="F173" s="1">
+        <v>45967</v>
+      </c>
       <c r="I173">
         <v>14755</v>
       </c>
@@ -4755,6 +4761,12 @@
       </c>
       <c r="D175" s="2">
         <v>658021.80000000005</v>
+      </c>
+      <c r="E175">
+        <v>1070</v>
+      </c>
+      <c r="F175" s="1">
+        <v>45966</v>
       </c>
       <c r="H175" t="s">
         <v>73</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5734A-C4A5-4C90-8699-1624E32489A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51235577-5B3B-47BE-8651-DEC0AECA3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="82">
   <si>
     <t>007/2024</t>
   </si>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,7 +5013,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5055,8 +5055,42 @@
         <v>262734.39</v>
       </c>
     </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196">
+        <v>19</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D196" s="2">
+        <v>27445.97</v>
+      </c>
+      <c r="I196">
+        <v>14851</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>17</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D197" s="2">
+        <v>14885.7</v>
+      </c>
+      <c r="I197">
+        <v>14852</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A175" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A197" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51235577-5B3B-47BE-8651-DEC0AECA3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C709B8-AC4B-4420-8EDC-97E28F4C7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$H$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="83">
   <si>
     <t>007/2024</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>8 do 1</t>
+  </si>
+  <si>
+    <t>DATA</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,8 +5088,28 @@
       <c r="D197" s="2">
         <v>14885.7</v>
       </c>
+      <c r="E197">
+        <v>318</v>
+      </c>
+      <c r="F197" s="1">
+        <v>45980</v>
+      </c>
       <c r="I197">
         <v>14852</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>58</v>
+      </c>
+      <c r="B198">
+        <v>43</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D198" s="2">
+        <v>57532.81</v>
       </c>
     </row>
   </sheetData>
@@ -5097,26 +5120,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5124,335 +5148,344 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>60473.88</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>45795</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>45978</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>45795</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>45978</v>
       </c>
-      <c r="H2">
-        <f>C2/354000</f>
+      <c r="I2">
+        <f>D2/354000</f>
         <v>0.17083016949152541</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>22686.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>45638</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>45758</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>45877</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5310660</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>45055</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>45419</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>45065</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>45444</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>5511402.9400000004</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>5511402.9400000004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>45420</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>45784</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>45445</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>45824</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5689421.25</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6622628.7999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="H10">
+      <c r="E10" s="1"/>
+      <c r="I10">
         <v>24.704439699999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7094539.6399999997</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>45785</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>46149</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>45825</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>46204</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7472178.6699999999</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>45234</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>45413</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>45365</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>45484</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>326580.40000000002</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="H14">
+      <c r="E14" s="1"/>
+      <c r="I14">
         <v>24.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
+        <v>45736</v>
+      </c>
+      <c r="E15" s="1">
         <v>45740</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>45919</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>45740</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>45919</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
+        <v>45838</v>
+      </c>
+      <c r="D16">
         <v>272714.58</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>12.5153</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>174563.8</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>445180.33</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>20.66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>45259</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>45623</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>45331</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>45696</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -5460,67 +5493,67 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>45624</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>45988</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>45697</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>46061</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>45000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>45790</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>45881</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>45790</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>45881</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>750497.66</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>17.348874299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5528,151 +5561,151 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>45827</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>46191</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>45414</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>45593</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>45485</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>45604</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>607822.56999999995</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>37.103999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>53124.77</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>848776.22</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>51.812800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>45594</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>45773</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>45605</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>45784</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>45878</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>45922</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>45882</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>46001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>45448</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>45567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>45568</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>45687</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5680,263 +5713,263 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>45688</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>45807</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>45694</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>45873</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>45808</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>45927</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>45874</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>45993</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>824320.8</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>45211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>45330</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>45331</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>45450</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>45420</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>45539</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>45451</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>45570</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>45540</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>45659</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>45571</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>45690</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>45660</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>45779</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>45691</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>45810</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>45780</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>45900</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>45811</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>45930</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>45901</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>46020</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>45679</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>45798</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>45799</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>45918</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>45433</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>45797</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>45509</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>45873</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>45798</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>46162</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>45874</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>46238</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>45020</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>45385</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>45020</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>45385</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5944,265 +5977,265 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>45386</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>45750</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>45386</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>45750</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>456065.43</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>24.927</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>45751</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>46115</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>45751</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>46115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>45</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>561979.51</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>24.622599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>45418</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>45597</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>45527</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>45706</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
       <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" s="2">
         <v>68330.58</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>3.5918095000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>45598</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>45657</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>45658</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>45717</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>45707</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>45886</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>45718</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>45777</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>45778</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>45837</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>45838</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>45897</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>45887</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>45946</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>45898</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>45957</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>45947</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>46006</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>45752</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>45931</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>45925</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>46289</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>339284.68</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>24.99</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>45743</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>46107</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>45743</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>46107</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -6210,307 +6243,330 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" s="2">
         <v>557026.77</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>48.59</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>45004</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>45183</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>45184</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>45363</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>45177</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>45541</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>45364</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>45513</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>61</v>
       </c>
       <c r="B70" t="s">
         <v>62</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>26106.95</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>45514</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>45663</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>45542</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>45906</v>
       </c>
-      <c r="H70" s="4">
+      <c r="I70" s="4">
         <v>44390</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>45907</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>45967</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>45676</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>46041</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>45676</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>46040</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>143481.88</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>4.7679</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>45034</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>45213</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>45184</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>45305</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>45214</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>45393</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>45306</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>45426</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>16</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>45394</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>45573</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>45427</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>45610</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>45574</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>45753</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>45611</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>45791</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>45754</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>45933</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>45792</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>45975</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>45923</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>45967</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.74</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>45931</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>46050</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>46021</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>46140</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>52</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1146381.42</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>45919</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>46008</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>45920</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>46099</v>
       </c>
-      <c r="H81" s="5">
+      <c r="I81" s="5">
         <v>19.106356999999999</v>
       </c>
     </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45918</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45920</v>
+      </c>
+      <c r="F82" s="1">
+        <v>45979</v>
+      </c>
+      <c r="G82" s="1">
+        <v>45920</v>
+      </c>
+      <c r="H82" s="1">
+        <v>45674</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H81" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I82" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C709B8-AC4B-4420-8EDC-97E28F4C7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727A5DB-C5E6-4C9B-9AFB-5A065B930B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,6 +5070,12 @@
       </c>
       <c r="D196" s="2">
         <v>27445.97</v>
+      </c>
+      <c r="E196">
+        <v>317</v>
+      </c>
+      <c r="F196" s="1">
+        <v>45979</v>
       </c>
       <c r="I196">
         <v>14851</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727A5DB-C5E6-4C9B-9AFB-5A065B930B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0337-CB24-48D3-B1E9-C29B31210EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
   <si>
     <t>007/2024</t>
   </si>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
         <v>45519</v>
@@ -1946,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
         <v>45538</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
         <v>45538</v>
@@ -1992,7 +1992,7 @@
         <v>26</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
         <v>45554</v>
@@ -2015,7 +2015,7 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
         <v>45568</v>
@@ -5118,8 +5118,22 @@
         <v>57532.81</v>
       </c>
     </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45979</v>
+      </c>
+      <c r="D199" s="2">
+        <v>163450.57999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A197" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A199" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F0337-CB24-48D3-B1E9-C29B31210EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB017C42-1B26-48AF-986A-7EC736F9D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="84">
   <si>
     <t>007/2024</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>014/2025</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,6 +5133,20 @@
       </c>
       <c r="D199" s="2">
         <v>163450.57999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>83</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D200" s="2">
+        <v>131040.5</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB017C42-1B26-48AF-986A-7EC736F9D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD266E2-40E3-41BE-A1C1-CF3C2334F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,6 +4734,9 @@
       <c r="F173" s="1">
         <v>45967</v>
       </c>
+      <c r="G173" s="1">
+        <v>45968</v>
+      </c>
       <c r="I173">
         <v>14755</v>
       </c>
@@ -4774,6 +4777,9 @@
       <c r="F175" s="1">
         <v>45966</v>
       </c>
+      <c r="G175" s="1">
+        <v>45968</v>
+      </c>
       <c r="H175" t="s">
         <v>73</v>
       </c>
@@ -5150,7 +5156,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A199" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A200" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD266E2-40E3-41BE-A1C1-CF3C2334F76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285A92F-3A2B-4153-B566-4853C48E6E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="85">
   <si>
     <t>007/2024</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>014/2025</t>
+  </si>
+  <si>
+    <t>REPROGRAMACAO SEM REFLEXO FINANCEIRO E ADITIVO DE PRAZO</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -5163,10 +5166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,6 +6234,9 @@
       <c r="B62" t="s">
         <v>46</v>
       </c>
+      <c r="C62" s="1">
+        <v>45749</v>
+      </c>
       <c r="E62" s="1">
         <v>45752</v>
       </c>
@@ -6251,6 +6257,9 @@
       <c r="B63" t="s">
         <v>45</v>
       </c>
+      <c r="C63" s="1">
+        <v>45862</v>
+      </c>
       <c r="D63">
         <v>339284.68</v>
       </c>
@@ -6608,8 +6617,31 @@
         <v>45674</v>
       </c>
     </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45931</v>
+      </c>
+      <c r="D83">
+        <v>273666.59000000003</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45932</v>
+      </c>
+      <c r="F83" s="1">
+        <v>46111</v>
+      </c>
+      <c r="I83">
+        <v>16.12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I82" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I83" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B285A92F-3A2B-4153-B566-4853C48E6E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963BD16-D1E7-4F51-B8D6-410853205B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="86">
   <si>
     <t>007/2024</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>REPROGRAMACAO SEM REFLEXO FINANCEIRO E ADITIVO DE PRAZO</t>
+  </si>
+  <si>
+    <t>BM 01 do ADITIVO 03</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,8 +5161,31 @@
         <v>131040.5</v>
       </c>
     </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1033447.11</v>
+      </c>
+      <c r="E201">
+        <v>150</v>
+      </c>
+      <c r="F201" s="1">
+        <v>45974</v>
+      </c>
+      <c r="G201" s="1">
+        <v>45982</v>
+      </c>
+      <c r="H201" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A200" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A201" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5168,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963BD16-D1E7-4F51-B8D6-410853205B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D85F07-34A7-4B19-9409-EA9474065782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,6 +5167,9 @@
       </c>
       <c r="B201">
         <v>3</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45971</v>
       </c>
       <c r="D201" s="2">
         <v>1033447.11</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D85F07-34A7-4B19-9409-EA9474065782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34295843-BF57-4EB8-99D7-E16D7ED514C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
   <si>
     <t>007/2024</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>BM 01 do ADITIVO 03</t>
+  </si>
+  <si>
+    <t>BM 02 do ADITIVO 03</t>
+  </si>
+  <si>
+    <t>DECANTADOR E FLOCULADOR</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,6 +4766,15 @@
       <c r="D174" s="2">
         <v>804000</v>
       </c>
+      <c r="E174">
+        <v>82</v>
+      </c>
+      <c r="F174" s="1">
+        <v>45966</v>
+      </c>
+      <c r="G174" s="1">
+        <v>45974</v>
+      </c>
       <c r="I174">
         <v>14741</v>
       </c>
@@ -5187,8 +5202,48 @@
         <v>85</v>
       </c>
     </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45986</v>
+      </c>
+      <c r="D202" s="2">
+        <v>99654.32</v>
+      </c>
+      <c r="H202" t="s">
+        <v>86</v>
+      </c>
+      <c r="I202">
+        <v>14994</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>16</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45988</v>
+      </c>
+      <c r="D203" s="2">
+        <v>686449.34</v>
+      </c>
+      <c r="H203" t="s">
+        <v>87</v>
+      </c>
+      <c r="I203">
+        <v>15027</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A201" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A203" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34295843-BF57-4EB8-99D7-E16D7ED514C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2726CA74-F2C9-4860-A1FE-1EE037DDBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="90">
   <si>
     <t>007/2024</t>
   </si>
@@ -251,9 +251,6 @@
     <t>6 do 4</t>
   </si>
   <si>
-    <t>os. = 2.942,38m² / med=2821,96m²</t>
-  </si>
-  <si>
     <t>1 do 1</t>
   </si>
   <si>
@@ -294,6 +291,15 @@
   </si>
   <si>
     <t>DECANTADOR E FLOCULADOR</t>
+  </si>
+  <si>
+    <t>7 do 4</t>
+  </si>
+  <si>
+    <t>os. = 2.942,38m² / med=2.821,96m²</t>
+  </si>
+  <si>
+    <t>os. = 2.751,11m²/ med=2.59072m²</t>
   </si>
 </sst>
 </file>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4802,7 +4808,7 @@
         <v>45968</v>
       </c>
       <c r="H175" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I175">
         <v>14754</v>
@@ -4981,7 +4987,7 @@
         <v>63</v>
       </c>
       <c r="B188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C188" s="1">
         <v>45712</v>
@@ -4995,7 +5001,7 @@
         <v>63</v>
       </c>
       <c r="B189" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C189" s="1">
         <v>45726</v>
@@ -5009,7 +5015,7 @@
         <v>63</v>
       </c>
       <c r="B190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C190" s="1">
         <v>45751</v>
@@ -5023,7 +5029,7 @@
         <v>63</v>
       </c>
       <c r="B191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C191" s="1">
         <v>45786</v>
@@ -5037,7 +5043,7 @@
         <v>63</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C192" s="1">
         <v>45814</v>
@@ -5051,7 +5057,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C193" s="1">
         <v>45845</v>
@@ -5065,7 +5071,7 @@
         <v>63</v>
       </c>
       <c r="B194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C194" s="1">
         <v>45876</v>
@@ -5079,7 +5085,7 @@
         <v>63</v>
       </c>
       <c r="B195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195" s="1">
         <v>45905</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5199,7 +5205,7 @@
         <v>45982</v>
       </c>
       <c r="H201" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,7 +5222,7 @@
         <v>99654.32</v>
       </c>
       <c r="H202" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I202">
         <v>14994</v>
@@ -5236,14 +5242,34 @@
         <v>686449.34</v>
       </c>
       <c r="H203" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I203">
         <v>15027</v>
       </c>
     </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D204" s="2">
+        <v>604101.49</v>
+      </c>
+      <c r="H204" t="s">
+        <v>89</v>
+      </c>
+      <c r="I204">
+        <v>15047</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A203" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A204" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5278,7 +5304,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -6706,7 +6732,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1">
         <v>45931</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2726CA74-F2C9-4860-A1FE-1EE037DDBD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D795087-E7D0-4301-B4E2-53F742705FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204"/>
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,6 +5113,9 @@
       <c r="F196" s="1">
         <v>45979</v>
       </c>
+      <c r="G196" s="1">
+        <v>45986</v>
+      </c>
       <c r="I196">
         <v>14851</v>
       </c>
@@ -5135,6 +5138,9 @@
       </c>
       <c r="F197" s="1">
         <v>45980</v>
+      </c>
+      <c r="G197" s="1">
+        <v>45986</v>
       </c>
       <c r="I197">
         <v>14852</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D795087-E7D0-4301-B4E2-53F742705FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AAB66D-B330-4D02-8D79-99B4FF6EA816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="90">
   <si>
     <t>007/2024</t>
   </si>
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E201" sqref="E201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,6 +4706,15 @@
       <c r="D171" s="2">
         <v>8367.6</v>
       </c>
+      <c r="E171">
+        <v>36</v>
+      </c>
+      <c r="F171" s="1">
+        <v>45973</v>
+      </c>
+      <c r="G171" s="1">
+        <v>45989</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -4726,6 +4735,9 @@
       <c r="F172" s="1">
         <v>45965</v>
       </c>
+      <c r="G172" s="1">
+        <v>45968</v>
+      </c>
       <c r="H172" t="s">
         <v>65</v>
       </c>
@@ -5274,8 +5286,25 @@
         <v>15047</v>
       </c>
     </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45993</v>
+      </c>
+      <c r="D205" s="2">
+        <v>293201.05</v>
+      </c>
+      <c r="I205">
+        <v>15076</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A204" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A205" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AAB66D-B330-4D02-8D79-99B4FF6EA816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C7C2A-A7CF-42AF-BC92-27470A1ED646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
   <si>
     <t>007/2024</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>os. = 2.751,11m²/ med=2.59072m²</t>
+  </si>
+  <si>
+    <t>não inseri no supa aqui...so depois</t>
   </si>
 </sst>
 </file>
@@ -661,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,6 +5202,15 @@
       <c r="D200" s="2">
         <v>131040.5</v>
       </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>45993</v>
+      </c>
+      <c r="H200" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -5278,6 +5290,12 @@
       </c>
       <c r="D204" s="2">
         <v>604101.49</v>
+      </c>
+      <c r="E204">
+        <v>1079</v>
+      </c>
+      <c r="F204" s="1">
+        <v>45993</v>
       </c>
       <c r="H204" t="s">
         <v>89</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C7C2A-A7CF-42AF-BC92-27470A1ED646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43DC16-FEEC-4B0B-8DEE-C3EA1EB9BF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,10 +5203,10 @@
         <v>131040.5</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" s="1">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="H200" t="s">
         <v>90</v>
@@ -5270,6 +5270,12 @@
       </c>
       <c r="D203" s="2">
         <v>686449.34</v>
+      </c>
+      <c r="E203">
+        <v>116</v>
+      </c>
+      <c r="F203" s="1">
+        <v>45994</v>
       </c>
       <c r="H203" t="s">
         <v>86</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43DC16-FEEC-4B0B-8DEE-C3EA1EB9BF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD36EC37-AD02-46D8-A8F2-5BBBF38AA1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="91">
   <si>
     <t>007/2024</t>
   </si>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5327,8 +5327,48 @@
         <v>15076</v>
       </c>
     </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <v>20</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45995</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44844.13</v>
+      </c>
+      <c r="E206">
+        <v>323</v>
+      </c>
+      <c r="F206" s="1">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>18</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45995</v>
+      </c>
+      <c r="D207" s="2">
+        <v>12832.38</v>
+      </c>
+      <c r="E207">
+        <v>324</v>
+      </c>
+      <c r="F207" s="1">
+        <v>45999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A205" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A207" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD36EC37-AD02-46D8-A8F2-5BBBF38AA1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD1D3E-3B78-4DE5-B54A-32D7A64DB364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G207" sqref="G207"/>
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,6 +5346,9 @@
       <c r="F206" s="1">
         <v>45999</v>
       </c>
+      <c r="G206" s="1">
+        <v>46003</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -5365,6 +5368,9 @@
       </c>
       <c r="F207" s="1">
         <v>45999</v>
+      </c>
+      <c r="G207" s="1">
+        <v>46003</v>
       </c>
     </row>
   </sheetData>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD1D3E-3B78-4DE5-B54A-32D7A64DB364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB2F49-8414-4E45-BA39-7015C17847BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="91">
   <si>
     <t>007/2024</t>
   </si>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,6 +5277,9 @@
       <c r="F203" s="1">
         <v>45994</v>
       </c>
+      <c r="G203" s="1">
+        <v>46003</v>
+      </c>
       <c r="H203" t="s">
         <v>86</v>
       </c>
@@ -5373,8 +5376,25 @@
         <v>46003</v>
       </c>
     </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1">
+        <v>46006</v>
+      </c>
+      <c r="D208" s="2">
+        <v>80713.570000000007</v>
+      </c>
+      <c r="I208">
+        <v>15173</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A207" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB2F49-8414-4E45-BA39-7015C17847BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB8140-3DAD-4F8A-8B07-C07A9DA7C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="93">
   <si>
     <t>007/2024</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>não inseri no supa aqui...so depois</t>
+  </si>
+  <si>
+    <t>antes 80.713,57 atualizada em 29/12</t>
+  </si>
+  <si>
+    <t>antes 52.211,52 atualizada em 29/12</t>
   </si>
 </sst>
 </file>
@@ -664,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,7 +4130,10 @@
         <v>45870</v>
       </c>
       <c r="D148" s="2">
-        <v>52211.519999999997</v>
+        <v>57547.85</v>
+      </c>
+      <c r="H148" t="s">
+        <v>92</v>
       </c>
       <c r="I148">
         <v>13757</v>
@@ -5387,7 +5396,10 @@
         <v>46006</v>
       </c>
       <c r="D208" s="2">
-        <v>80713.570000000007</v>
+        <v>85319.01</v>
+      </c>
+      <c r="H208" t="s">
+        <v>91</v>
       </c>
       <c r="I208">
         <v>15173</v>
@@ -5401,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6673,6 +6685,9 @@
       <c r="B74" t="s">
         <v>46</v>
       </c>
+      <c r="C74" s="1">
+        <v>45029</v>
+      </c>
       <c r="E74" s="1">
         <v>45034</v>
       </c>
@@ -6693,6 +6708,9 @@
       <c r="B75" t="s">
         <v>46</v>
       </c>
+      <c r="C75" s="1">
+        <v>45208</v>
+      </c>
       <c r="E75" s="1">
         <v>45214</v>
       </c>
@@ -6713,6 +6731,9 @@
       <c r="B76" t="s">
         <v>46</v>
       </c>
+      <c r="C76" s="1">
+        <v>45391</v>
+      </c>
       <c r="E76" s="1">
         <v>45394</v>
       </c>
@@ -6733,6 +6754,9 @@
       <c r="B77" t="s">
         <v>46</v>
       </c>
+      <c r="C77" s="1">
+        <v>45569</v>
+      </c>
       <c r="E77" s="1">
         <v>45574</v>
       </c>
@@ -6753,6 +6777,9 @@
       <c r="B78" t="s">
         <v>46</v>
       </c>
+      <c r="C78" s="1">
+        <v>45749</v>
+      </c>
       <c r="E78" s="1">
         <v>45754</v>
       </c>
@@ -6875,8 +6902,31 @@
         <v>16.12</v>
       </c>
     </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45931</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45934</v>
+      </c>
+      <c r="F84" s="1">
+        <v>46113</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45976</v>
+      </c>
+      <c r="H84" s="1">
+        <v>46156</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I83" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I84" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB8140-3DAD-4F8A-8B07-C07A9DA7C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276063B-941C-4DBC-9B40-F85870923A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2276063B-941C-4DBC-9B40-F85870923A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F2E5A5-5760-4AEA-BA8D-815681147897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="94">
   <si>
     <t>007/2024</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>antes 52.211,52 atualizada em 29/12</t>
+  </si>
+  <si>
+    <t>ADITVO DE PRAZO</t>
   </si>
 </sst>
 </file>
@@ -668,6 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -716,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +743,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +766,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -785,7 +789,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -808,7 +812,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -834,7 +838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -860,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -886,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -912,7 +916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -938,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -964,7 +968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -990,7 +994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +3426,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3891,7 +3895,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3947,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4552,7 +4556,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4630,7 +4634,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +4709,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4757,7 +4761,7 @@
         <v>14663</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>14851</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>163450.57999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5406,17 +5410,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="018/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:I84"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,12 +5473,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45792</v>
       </c>
       <c r="D2">
         <v>60473.88</v>
@@ -5489,24 +5503,30 @@
         <v>0.17083016949152541</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
+      <c r="C3" s="1">
+        <v>45634</v>
+      </c>
       <c r="D3">
         <v>22686.63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
+      <c r="C4" s="1">
+        <v>45635</v>
+      </c>
       <c r="E4" s="1">
         <v>45638</v>
       </c>
@@ -5514,13 +5534,16 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
+      <c r="C5" s="1">
+        <v>45755</v>
+      </c>
       <c r="E5" s="1">
         <v>45758</v>
       </c>
@@ -5528,7 +5551,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5554,7 +5577,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5567,7 +5590,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5593,7 +5616,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5605,7 +5628,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5620,7 +5643,7 @@
         <v>24.704439699999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5643,7 +5666,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5655,7 +5678,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5675,7 +5698,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5690,7 +5713,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5713,7 +5736,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5730,13 +5753,16 @@
         <v>12.5153</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
+      <c r="C17" s="1">
+        <v>44988</v>
+      </c>
       <c r="D17">
         <v>174563.8</v>
       </c>
@@ -5744,13 +5770,16 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="C18" s="1">
+        <v>45100</v>
+      </c>
       <c r="D18">
         <v>445180.33</v>
       </c>
@@ -5758,13 +5787,16 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
+      <c r="C19" s="1">
+        <v>45254</v>
+      </c>
       <c r="E19" s="1">
         <v>45259</v>
       </c>
@@ -5778,21 +5810,27 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
+      <c r="C21" s="1">
+        <v>45621</v>
+      </c>
       <c r="E21" s="1">
         <v>45624</v>
       </c>
@@ -5806,7 +5844,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5832,13 +5870,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
+      <c r="C23" s="1">
+        <v>45558</v>
+      </c>
       <c r="D23">
         <v>750497.66</v>
       </c>
@@ -5846,7 +5887,7 @@
         <v>17.348874299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5854,7 +5895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5868,7 +5909,7 @@
         <v>46191</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5888,7 +5929,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5902,7 +5943,7 @@
         <v>37.103999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5916,7 +5957,7 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5930,7 +5971,7 @@
         <v>51.812800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5950,13 +5991,16 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
+      <c r="C31" s="1">
+        <v>45877</v>
+      </c>
       <c r="E31" s="1">
         <v>45878</v>
       </c>
@@ -5970,13 +6014,16 @@
         <v>46001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
       </c>
+      <c r="C32" s="1">
+        <v>45443</v>
+      </c>
       <c r="E32" s="1">
         <v>45448</v>
       </c>
@@ -5984,13 +6031,16 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
       </c>
+      <c r="C33" s="1">
+        <v>45565</v>
+      </c>
       <c r="E33" s="1">
         <v>45568</v>
       </c>
@@ -5998,21 +6048,27 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
       </c>
+      <c r="C35" s="1">
+        <v>45680</v>
+      </c>
       <c r="E35" s="1">
         <v>45688</v>
       </c>
@@ -6026,13 +6082,16 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
+      <c r="C36" s="1">
+        <v>45805</v>
+      </c>
       <c r="E36" s="1">
         <v>45808</v>
       </c>
@@ -6046,13 +6105,16 @@
         <v>45993</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
+      <c r="C37" s="1">
+        <v>45866</v>
+      </c>
       <c r="D37">
         <v>824320.8</v>
       </c>
@@ -6060,13 +6122,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
+      <c r="C38" s="1">
+        <v>45208</v>
+      </c>
       <c r="E38" s="1">
         <v>45211</v>
       </c>
@@ -6074,13 +6139,16 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
+      <c r="C39" s="1">
+        <v>45328</v>
+      </c>
       <c r="E39" s="1">
         <v>45331</v>
       </c>
@@ -6094,13 +6162,16 @@
         <v>45539</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
+      <c r="C40" s="1">
+        <v>45448</v>
+      </c>
       <c r="E40" s="1">
         <v>45451</v>
       </c>
@@ -6114,13 +6185,16 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
+      <c r="C41" s="1">
+        <v>45567</v>
+      </c>
       <c r="E41" s="1">
         <v>45571</v>
       </c>
@@ -6134,13 +6208,16 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
+      <c r="C42" s="1">
+        <v>45687</v>
+      </c>
       <c r="E42" s="1">
         <v>45691</v>
       </c>
@@ -6154,12 +6231,15 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45806</v>
       </c>
       <c r="E43" s="1">
         <v>45811</v>
@@ -6181,6 +6261,9 @@
       <c r="B44" t="s">
         <v>46</v>
       </c>
+      <c r="C44" s="1">
+        <v>45674</v>
+      </c>
       <c r="E44" s="1">
         <v>45679</v>
       </c>
@@ -6195,6 +6278,9 @@
       <c r="B45" t="s">
         <v>56</v>
       </c>
+      <c r="C45" s="1">
+        <v>45796</v>
+      </c>
       <c r="E45" s="1">
         <v>45799</v>
       </c>
@@ -6202,7 +6288,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -6222,7 +6308,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -6242,7 +6328,7 @@
         <v>46238</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -6262,7 +6348,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -6270,7 +6356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6290,7 +6376,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -6304,7 +6390,7 @@
         <v>24.927</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6324,7 +6410,7 @@
         <v>46115</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6338,7 +6424,7 @@
         <v>24.622599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -6358,7 +6444,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -6372,7 +6458,7 @@
         <v>3.5918095000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -6386,7 +6472,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -6406,7 +6492,7 @@
         <v>45886</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -6420,7 +6506,7 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -6434,7 +6520,7 @@
         <v>45837</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -6454,7 +6540,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -6474,7 +6560,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -6497,7 +6583,7 @@
         <v>46289</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -6514,13 +6600,16 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
       </c>
+      <c r="C64" s="1">
+        <v>45740</v>
+      </c>
       <c r="E64" s="1">
         <v>45743</v>
       </c>
@@ -6534,21 +6623,27 @@
         <v>46107</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
       </c>
+      <c r="C66" s="1">
+        <v>45877</v>
+      </c>
       <c r="D66" s="2">
         <v>557026.77</v>
       </c>
@@ -6556,7 +6651,7 @@
         <v>48.59</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6570,7 +6665,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6590,7 +6685,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6604,7 +6699,7 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -6630,7 +6725,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -6644,7 +6739,7 @@
         <v>45967</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -6664,7 +6759,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6678,7 +6773,7 @@
         <v>4.7679</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -6701,7 +6796,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -6724,7 +6819,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -6747,7 +6842,7 @@
         <v>45610</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -6770,7 +6865,7 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -6793,13 +6888,16 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
+      <c r="C79" s="1">
+        <v>45919</v>
+      </c>
       <c r="E79" s="1">
         <v>45923</v>
       </c>
@@ -6810,12 +6908,15 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45926</v>
       </c>
       <c r="E80" s="1">
         <v>45931</v>
@@ -6837,6 +6938,9 @@
       <c r="B81" t="s">
         <v>52</v>
       </c>
+      <c r="C81" s="1">
+        <v>45918</v>
+      </c>
       <c r="D81">
         <v>1146381.42</v>
       </c>
@@ -6856,7 +6960,7 @@
         <v>19.106356999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6879,7 +6983,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -6902,7 +7006,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -6925,8 +7029,106 @@
         <v>46156</v>
       </c>
     </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45992</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45989</v>
+      </c>
+      <c r="F85" s="1">
+        <v>46353</v>
+      </c>
+      <c r="G85" s="1">
+        <v>46062</v>
+      </c>
+      <c r="H85" s="1">
+        <v>46426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E86" s="1">
+        <v>46012</v>
+      </c>
+      <c r="F86" s="1">
+        <v>46376</v>
+      </c>
+      <c r="G86" s="1">
+        <v>46012</v>
+      </c>
+      <c r="H86" s="1">
+        <v>46376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45924</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45928</v>
+      </c>
+      <c r="F87" s="1">
+        <v>46047</v>
+      </c>
+      <c r="G87" s="1">
+        <v>45994</v>
+      </c>
+      <c r="H87" s="1">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E88" s="1">
+        <v>46009</v>
+      </c>
+      <c r="F88" s="1">
+        <v>46098</v>
+      </c>
+      <c r="G88" s="1">
+        <v>46100</v>
+      </c>
+      <c r="H88" s="1">
+        <v>46189</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I84" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I87" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="017/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F2E5A5-5760-4AEA-BA8D-815681147897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA1EC19-2EF5-496B-9DF8-8B10A8CE8340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -671,10 +671,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
@@ -720,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +742,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -766,7 +765,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -789,7 +788,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -812,7 +811,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -838,7 +837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -864,7 +863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -890,7 +889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -916,7 +915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -942,7 +941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -968,7 +967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -994,7 +993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3471,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>14663</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>14851</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>163450.57999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5410,24 +5409,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="018/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5473,7 +5465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5503,7 +5495,7 @@
         <v>0.17083016949152541</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5517,7 +5509,7 @@
         <v>22686.63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5526,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5551,7 +5543,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5569,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5590,7 +5582,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5616,7 +5608,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5620,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>24.704439699999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5666,7 +5658,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5678,7 +5670,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5698,7 +5690,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5713,7 +5705,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5736,7 +5728,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5753,7 +5745,7 @@
         <v>12.5153</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -5770,7 +5762,7 @@
         <v>7.4950000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5787,7 +5779,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5802,7 @@
         <v>45696</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +5813,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +5836,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5887,7 +5879,7 @@
         <v>17.348874299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5895,7 +5887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -5909,7 +5901,7 @@
         <v>46191</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5929,7 +5921,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5943,7 +5935,7 @@
         <v>37.103999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5957,7 +5949,7 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5971,7 +5963,7 @@
         <v>51.812800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5991,7 +5983,7 @@
         <v>45784</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -6014,7 +6006,7 @@
         <v>46001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6031,7 +6023,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6048,7 +6040,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6059,7 +6051,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6074,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -6105,7 +6097,7 @@
         <v>45993</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6122,7 +6114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -6139,7 +6131,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +6154,7 @@
         <v>45539</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -6185,7 +6177,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -6208,7 +6200,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6231,7 +6223,7 @@
         <v>45900</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -6288,7 +6280,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -6308,7 +6300,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -6328,7 +6320,7 @@
         <v>46238</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -6348,7 +6340,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -6356,7 +6348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -6376,7 +6368,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -6390,7 +6382,7 @@
         <v>24.927</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6410,7 +6402,7 @@
         <v>46115</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6424,7 +6416,7 @@
         <v>24.622599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -6444,7 +6436,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -6458,7 +6450,7 @@
         <v>3.5918095000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -6472,7 +6464,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -6492,7 +6484,7 @@
         <v>45886</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -6506,7 +6498,7 @@
         <v>45777</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -6520,7 +6512,7 @@
         <v>45837</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -6540,7 +6532,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -6560,7 +6552,7 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -6583,7 +6575,7 @@
         <v>46289</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -6600,7 +6592,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -6623,7 +6615,7 @@
         <v>46107</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6626,7 @@
         <v>45840</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -6651,7 +6643,7 @@
         <v>48.59</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6665,7 +6657,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6685,7 +6677,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6699,7 +6691,7 @@
         <v>45513</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -6725,7 +6717,7 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -6739,7 +6731,7 @@
         <v>45967</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -6759,7 +6751,7 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -6773,7 +6765,7 @@
         <v>4.7679</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -6796,7 +6788,7 @@
         <v>45305</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -6819,7 +6811,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -6842,7 +6834,7 @@
         <v>45610</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -6865,7 +6857,7 @@
         <v>45791</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -6888,7 +6880,7 @@
         <v>45975</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -6908,7 +6900,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6960,7 +6952,7 @@
         <v>19.106356999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6983,7 +6975,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +6998,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -7029,7 +7021,7 @@
         <v>46156</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -7052,7 +7044,7 @@
         <v>46426</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -7075,7 +7067,7 @@
         <v>46376</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -7122,13 +7114,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I87" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="017/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I88" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA1EC19-2EF5-496B-9DF8-8B10A8CE8340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544DA6F-E9A6-4237-9623-8AFAEE117F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="94">
   <si>
     <t>007/2024</t>
   </si>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
@@ -5416,10 +5416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6287,6 +6287,9 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" s="1">
+        <v>45428</v>
+      </c>
       <c r="E46" s="1">
         <v>45433</v>
       </c>
@@ -6307,6 +6310,9 @@
       <c r="B47" t="s">
         <v>46</v>
       </c>
+      <c r="C47" s="1">
+        <v>45793</v>
+      </c>
       <c r="E47" s="1">
         <v>45798</v>
       </c>
@@ -6423,6 +6429,9 @@
       <c r="B54" t="s">
         <v>46</v>
       </c>
+      <c r="C54" s="1">
+        <v>45412</v>
+      </c>
       <c r="E54" s="1">
         <v>45418</v>
       </c>
@@ -6443,6 +6452,9 @@
       <c r="B55" t="s">
         <v>45</v>
       </c>
+      <c r="C55" s="1">
+        <v>45539</v>
+      </c>
       <c r="D55" s="2">
         <v>68330.58</v>
       </c>
@@ -6457,6 +6469,9 @@
       <c r="B56" t="s">
         <v>46</v>
       </c>
+      <c r="C56" s="1">
+        <v>45593</v>
+      </c>
       <c r="E56" s="1">
         <v>45598</v>
       </c>
@@ -6471,6 +6486,9 @@
       <c r="B57" t="s">
         <v>46</v>
       </c>
+      <c r="C57" s="1">
+        <v>45653</v>
+      </c>
       <c r="E57" s="1">
         <v>45658</v>
       </c>
@@ -6491,6 +6509,9 @@
       <c r="B58" t="s">
         <v>46</v>
       </c>
+      <c r="C58" s="1">
+        <v>45714</v>
+      </c>
       <c r="E58" s="1">
         <v>45718</v>
       </c>
@@ -6505,6 +6526,9 @@
       <c r="B59" t="s">
         <v>46</v>
       </c>
+      <c r="C59" s="1">
+        <v>45776</v>
+      </c>
       <c r="E59" s="1">
         <v>45778</v>
       </c>
@@ -6519,6 +6543,9 @@
       <c r="B60" t="s">
         <v>46</v>
       </c>
+      <c r="C60" s="1">
+        <v>45833</v>
+      </c>
       <c r="E60" s="1">
         <v>45838</v>
       </c>
@@ -6539,6 +6566,9 @@
       <c r="B61" t="s">
         <v>46</v>
       </c>
+      <c r="C61" s="1">
+        <v>45896</v>
+      </c>
       <c r="E61" s="1">
         <v>45898</v>
       </c>
@@ -7113,8 +7143,31 @@
         <v>46189</v>
       </c>
     </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45957</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45958</v>
+      </c>
+      <c r="F89" s="1">
+        <v>46017</v>
+      </c>
+      <c r="G89" s="1">
+        <v>46007</v>
+      </c>
+      <c r="H89" s="1">
+        <v>46066</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I89" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544DA6F-E9A6-4237-9623-8AFAEE117F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8369CB-45BB-4E8B-8390-81F81A5593DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
         <v>45519</v>
@@ -1979,7 +1979,7 @@
         <v>26</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
         <v>45538</v>
@@ -2002,7 +2002,7 @@
         <v>26</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
         <v>45538</v>
@@ -2025,7 +2025,7 @@
         <v>26</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>45554</v>
@@ -2048,7 +2048,7 @@
         <v>26</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
         <v>45568</v>
@@ -5192,13 +5192,22 @@
         <v>26</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" s="1">
         <v>45979</v>
       </c>
       <c r="D199" s="2">
         <v>163450.57999999999</v>
+      </c>
+      <c r="E199">
+        <v>1097</v>
+      </c>
+      <c r="F199" s="1">
+        <v>46003</v>
+      </c>
+      <c r="G199" s="1">
+        <v>46017</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -5418,7 +5427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8369CB-45BB-4E8B-8390-81F81A5593DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C50549-4D96-44ED-8F1D-E4BF2A4F6335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,6 +5346,15 @@
       </c>
       <c r="D205" s="2">
         <v>293201.05</v>
+      </c>
+      <c r="E205">
+        <v>316</v>
+      </c>
+      <c r="F205" s="1">
+        <v>46003</v>
+      </c>
+      <c r="G205" s="1">
+        <v>46010</v>
       </c>
       <c r="I205">
         <v>15076</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C50549-4D96-44ED-8F1D-E4BF2A4F6335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990B779-F9FC-47FA-B625-B967009DDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="94">
   <si>
     <t>007/2024</t>
   </si>
@@ -671,10 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I208"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +812,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -837,7 +838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -863,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -889,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -915,7 +916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -941,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -967,7 +968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -993,7 +994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>14663</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4939,7 +4940,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>14851</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5426,8 +5427,28 @@
         <v>15173</v>
       </c>
     </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>17</v>
+      </c>
+      <c r="C209" s="1">
+        <v>46030</v>
+      </c>
+      <c r="D209" s="2">
+        <v>423150</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="007/2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990B779-F9FC-47FA-B625-B967009DDFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94DC01-C094-499D-BE96-3B5EF44A90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="96">
   <si>
     <t>007/2024</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>ADITVO DE PRAZO</t>
+  </si>
+  <si>
+    <t>8 do 4</t>
+  </si>
+  <si>
+    <t>os  = 4.243,08m²/med=3.970,31m²</t>
   </si>
 </sst>
 </file>
@@ -671,11 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +817,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -838,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -864,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -890,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -916,7 +921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -942,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -968,7 +973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -994,7 +999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1428,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1589,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1842,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2072,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2141,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2256,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2480,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2779,7 +2784,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +2948,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2966,7 +2971,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3012,7 +3017,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3058,7 +3063,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3086,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3265,7 +3270,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3357,7 +3362,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3541,7 +3546,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3664,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3900,7 @@
         <v>13434</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4504,7 +4509,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4556,7 +4561,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4585,7 +4590,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4665,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4708,8 +4713,12 @@
       <c r="I170">
         <v>14491</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <f>427.05+3816.03</f>
+        <v>4243.08</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>14663</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4841,8 +4850,12 @@
       <c r="I175">
         <v>14754</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <f>424.05+3546.26</f>
+        <v>3970.3100000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4856,7 +4869,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4870,7 +4883,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4884,7 +4897,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4912,7 +4925,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4926,7 +4939,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4940,7 +4953,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4954,7 +4967,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4968,7 +4981,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -4996,7 +5009,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5010,7 +5023,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5024,7 +5037,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5038,7 +5051,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5052,7 +5065,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5080,7 +5093,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5094,7 +5107,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5108,7 +5121,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5122,7 +5135,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5161,7 @@
         <v>14851</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -5174,7 +5187,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5188,7 +5201,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5224,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5234,7 +5247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5309,7 +5322,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5328,6 +5341,9 @@
       <c r="F204" s="1">
         <v>45993</v>
       </c>
+      <c r="G204" s="1">
+        <v>46003</v>
+      </c>
       <c r="H204" t="s">
         <v>89</v>
       </c>
@@ -5335,7 +5351,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5361,7 +5377,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -5407,7 +5423,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5427,7 +5443,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5441,14 +5457,45 @@
         <v>423150</v>
       </c>
     </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>19</v>
+      </c>
+      <c r="C210" s="1">
+        <v>46041</v>
+      </c>
+      <c r="D210" s="2">
+        <v>18614.2</v>
+      </c>
+      <c r="I210">
+        <v>15428</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" s="1">
+        <v>46038</v>
+      </c>
+      <c r="D211" s="2">
+        <v>925792.9</v>
+      </c>
+      <c r="H211" t="s">
+        <v>95</v>
+      </c>
+      <c r="I211">
+        <v>15416</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A208" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="007/2024"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A211" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94DC01-C094-499D-BE96-3B5EF44A90ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AD311-ED0D-45AE-8773-1DF999947E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AD311-ED0D-45AE-8773-1DF999947E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3FB04-324B-4054-8C69-0703C2FD78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
   <si>
     <t>007/2024</t>
   </si>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5494,8 +5494,22 @@
         <v>15416</v>
       </c>
     </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>8</v>
+      </c>
+      <c r="C212" s="1">
+        <v>46044</v>
+      </c>
+      <c r="D212" s="2">
+        <v>238489.65</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A211" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E3FB04-324B-4054-8C69-0703C2FD78A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E443DA-ABAB-4468-887A-EE11C9A33099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5456,6 +5456,15 @@
       <c r="D209" s="2">
         <v>423150</v>
       </c>
+      <c r="E209">
+        <v>207</v>
+      </c>
+      <c r="F209" s="1">
+        <v>46045</v>
+      </c>
+      <c r="I209">
+        <v>15300</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -5487,6 +5496,12 @@
       <c r="D211" s="2">
         <v>925792.9</v>
       </c>
+      <c r="E211">
+        <v>1099</v>
+      </c>
+      <c r="F211" s="1">
+        <v>46044</v>
+      </c>
       <c r="H211" t="s">
         <v>95</v>
       </c>
@@ -5506,6 +5521,9 @@
       </c>
       <c r="D212" s="2">
         <v>238489.65</v>
+      </c>
+      <c r="I212">
+        <v>15490</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E443DA-ABAB-4468-887A-EE11C9A33099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C9204-BFFB-4F59-B46E-BA69CB4BBB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4457,7 +4457,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>14206</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4713,12 +4713,8 @@
       <c r="I170">
         <v>14491</v>
       </c>
-      <c r="M170">
-        <f>427.05+3816.03</f>
-        <v>4243.08</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4770,7 +4766,7 @@
         <v>14663</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4796,7 +4792,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4850,12 +4846,8 @@
       <c r="I175">
         <v>14754</v>
       </c>
-      <c r="M175">
-        <f>424.05+3546.26</f>
-        <v>3970.3100000000004</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C9204-BFFB-4F59-B46E-BA69CB4BBB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B805DB-3AE7-4D8F-B432-992BB41E0A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="96">
   <si>
     <t>007/2024</t>
   </si>
@@ -680,7 +680,7 @@
   <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,6 +5454,9 @@
       <c r="F209" s="1">
         <v>46045</v>
       </c>
+      <c r="G209" s="1">
+        <v>46050</v>
+      </c>
       <c r="I209">
         <v>15300</v>
       </c>
@@ -5493,6 +5496,9 @@
       </c>
       <c r="F211" s="1">
         <v>46044</v>
+      </c>
+      <c r="G211" s="1">
+        <v>46050</v>
       </c>
       <c r="H211" t="s">
         <v>95</v>
@@ -5526,10 +5532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,6 +7282,52 @@
         <v>46066</v>
       </c>
     </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="1">
+        <v>46049</v>
+      </c>
+      <c r="E90" s="1">
+        <v>46051</v>
+      </c>
+      <c r="F90" s="1">
+        <v>46170</v>
+      </c>
+      <c r="G90" s="1">
+        <v>46141</v>
+      </c>
+      <c r="H90" s="1">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="1">
+        <v>46047</v>
+      </c>
+      <c r="E91" s="1">
+        <v>46048</v>
+      </c>
+      <c r="F91" s="1">
+        <v>46167</v>
+      </c>
+      <c r="G91" s="1">
+        <v>46114</v>
+      </c>
+      <c r="H91" s="1">
+        <v>46233</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I89" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B805DB-3AE7-4D8F-B432-992BB41E0A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BFF69-DBF1-4F18-BEB6-7EFC291A1F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -677,10 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H209" sqref="H209"/>
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +749,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +772,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -794,7 +795,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -817,7 +818,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -843,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -869,7 +870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -895,7 +896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -921,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5474,11 +5475,17 @@
       <c r="D210" s="2">
         <v>18614.2</v>
       </c>
+      <c r="E210">
+        <v>331</v>
+      </c>
+      <c r="F210" s="1">
+        <v>46050</v>
+      </c>
       <c r="I210">
         <v>15428</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5507,7 +5514,7 @@
         <v>15416</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -5525,7 +5532,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="028/2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BFF69-DBF1-4F18-BEB6-7EFC291A1F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04592653-E30C-4104-89B4-C96FEE1491A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -677,7 +677,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -726,7 +725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -749,7 +748,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -772,7 +771,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -795,7 +794,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -818,7 +817,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -844,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -870,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -896,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -922,7 +921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>59</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>59</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>59</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>63</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>63</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>63</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>63</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>63</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>63</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>63</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>63</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>63</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>63</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>63</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>63</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>58</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>15428</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>15416</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -5532,13 +5531,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="028/2023"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04592653-E30C-4104-89B4-C96FEE1491A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996DF64-B96E-433C-AB14-875957E5E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$213</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="96">
   <si>
     <t>007/2024</t>
   </si>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,8 +5530,25 @@
         <v>15490</v>
       </c>
     </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213" s="1">
+        <v>46052</v>
+      </c>
+      <c r="D213" s="2">
+        <v>35089.760000000002</v>
+      </c>
+      <c r="I213">
+        <v>15606</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A212" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A213" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5540,7 +5557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996DF64-B96E-433C-AB14-875957E5E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39937AFB-5F56-4A9A-B42C-E1935481EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
     <sheet name="Aditivo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$213</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="95">
   <si>
     <t>007/2024</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>ADITIVO DE PRAZO E VALOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADITIVO DE VALOR </t>
   </si>
   <si>
     <t>010/2024</t>
@@ -679,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +967,7 @@
         <v>45411</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -996,7 +993,7 @@
         <v>45457</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1022,7 +1019,7 @@
         <v>45478</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1048,7 +1045,7 @@
         <v>45511</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1074,7 +1071,7 @@
         <v>45567</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,7 +1097,7 @@
         <v>45567</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,7 +1123,7 @@
         <v>45582</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,7 +1146,7 @@
         <v>45603</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2302,7 +2299,7 @@
         <v>45705</v>
       </c>
       <c r="H68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,7 +3290,7 @@
         <v>45757</v>
       </c>
       <c r="H112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I112">
         <v>12400</v>
@@ -3779,7 +3776,7 @@
         <v>45834</v>
       </c>
       <c r="H133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,7 +3920,7 @@
         <v>45846</v>
       </c>
       <c r="H139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I139">
         <v>13435</v>
@@ -4142,7 +4139,7 @@
         <v>57547.85</v>
       </c>
       <c r="H148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I148">
         <v>13757</v>
@@ -4197,7 +4194,7 @@
         <v>45897</v>
       </c>
       <c r="H150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I150">
         <v>13962</v>
@@ -4234,7 +4231,7 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" s="1">
         <v>45901</v>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4355,7 +4352,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -4407,7 +4404,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -4459,7 +4456,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -4485,7 +4482,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163">
         <v>8</v>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -4584,7 +4581,7 @@
         <v>45919</v>
       </c>
       <c r="H165" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I165">
         <v>14300</v>
@@ -4613,12 +4610,12 @@
         <v>45904</v>
       </c>
       <c r="H166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -4693,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C170" s="1">
         <v>45933</v>
@@ -4760,7 +4757,7 @@
         <v>45968</v>
       </c>
       <c r="H172" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I172">
         <v>14663</v>
@@ -4823,7 +4820,7 @@
         <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C175" s="1">
         <v>45964</v>
@@ -4841,7 +4838,7 @@
         <v>45968</v>
       </c>
       <c r="H175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I175">
         <v>14754</v>
@@ -4849,7 +4846,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -4877,7 +4874,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -4905,7 +4902,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B180">
         <v>5</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B181">
         <v>6</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B183">
         <v>8</v>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B184">
         <v>9</v>
@@ -4975,7 +4972,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B185">
         <v>10</v>
@@ -4989,7 +4986,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B186">
         <v>11</v>
@@ -5003,7 +5000,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B187">
         <v>12</v>
@@ -5017,10 +5014,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C188" s="1">
         <v>45712</v>
@@ -5031,10 +5028,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B189" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C189" s="1">
         <v>45726</v>
@@ -5045,10 +5042,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B190" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C190" s="1">
         <v>45751</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C191" s="1">
         <v>45786</v>
@@ -5073,10 +5070,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C192" s="1">
         <v>45814</v>
@@ -5087,10 +5084,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C193" s="1">
         <v>45845</v>
@@ -5101,10 +5098,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B194" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C194" s="1">
         <v>45876</v>
@@ -5115,10 +5112,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C195" s="1">
         <v>45905</v>
@@ -5181,7 +5178,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B198">
         <v>43</v>
@@ -5218,7 +5215,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5236,7 +5233,7 @@
         <v>45995</v>
       </c>
       <c r="H200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -5262,7 +5259,7 @@
         <v>45982</v>
       </c>
       <c r="H201" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,7 +5276,7 @@
         <v>99654.32</v>
       </c>
       <c r="H202" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I202">
         <v>14994</v>
@@ -5308,7 +5305,7 @@
         <v>46003</v>
       </c>
       <c r="H203" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I203">
         <v>15027</v>
@@ -5319,7 +5316,7 @@
         <v>5</v>
       </c>
       <c r="B204" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C204" s="1">
         <v>45989</v>
@@ -5337,7 +5334,7 @@
         <v>46003</v>
       </c>
       <c r="H204" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I204">
         <v>15047</v>
@@ -5429,7 +5426,7 @@
         <v>85319.01</v>
       </c>
       <c r="H208" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I208">
         <v>15173</v>
@@ -5489,7 +5486,7 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C211" s="1">
         <v>46038</v>
@@ -5507,7 +5504,7 @@
         <v>46050</v>
       </c>
       <c r="H211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I211">
         <v>15416</v>
@@ -5557,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -6006,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>45558</v>
@@ -6020,15 +6017,15 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -6184,7 +6181,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1">
         <v>45656</v>
@@ -6407,7 +6404,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1">
         <v>45796</v>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -6515,7 +6512,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -6529,7 +6526,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -6549,7 +6546,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>45</v>
@@ -6814,7 +6811,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -6828,7 +6825,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
@@ -6848,7 +6845,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
@@ -6862,10 +6859,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
         <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
       </c>
       <c r="D70">
         <v>26106.95</v>
@@ -6888,7 +6885,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
@@ -6902,7 +6899,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
@@ -7149,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1">
         <v>45931</v>
@@ -7241,7 +7238,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="1">
         <v>45924</v>
@@ -7264,7 +7261,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>46008</v>
@@ -7352,7 +7349,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I89" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
+  <autoFilter ref="A1:I91" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39937AFB-5F56-4A9A-B42C-E1935481EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558D729-657C-4990-A7AF-662C92360540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Aditivo!$A$1:$I$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Medicoes!$A$1:$A$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="95">
   <si>
     <t>007/2024</t>
   </si>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,8 +5544,146 @@
         <v>15606</v>
       </c>
     </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>58</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45959</v>
+      </c>
+      <c r="D214" s="2">
+        <v>212210.11</v>
+      </c>
+      <c r="E214">
+        <v>128</v>
+      </c>
+      <c r="F214" s="1">
+        <v>45968</v>
+      </c>
+      <c r="G214" s="1">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>58</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D215" s="2">
+        <v>302542.83</v>
+      </c>
+      <c r="E215">
+        <v>151</v>
+      </c>
+      <c r="F215" s="1">
+        <v>46050</v>
+      </c>
+      <c r="G215" s="1">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>58</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D216" s="2">
+        <v>54609.58</v>
+      </c>
+      <c r="E216">
+        <v>147</v>
+      </c>
+      <c r="F216" s="1">
+        <v>46050</v>
+      </c>
+      <c r="G216" s="1">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>58</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D217" s="2">
+        <v>16483.919999999998</v>
+      </c>
+      <c r="E217">
+        <v>148</v>
+      </c>
+      <c r="F217" s="1">
+        <v>46050</v>
+      </c>
+      <c r="G217" s="1">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>58</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D218" s="2">
+        <v>95462.399999999994</v>
+      </c>
+      <c r="E218">
+        <v>149</v>
+      </c>
+      <c r="F218" s="1">
+        <v>46050</v>
+      </c>
+      <c r="G218" s="1">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219" s="1">
+        <v>46037</v>
+      </c>
+      <c r="D219" s="2">
+        <v>11038.18</v>
+      </c>
+      <c r="E219">
+        <v>150</v>
+      </c>
+      <c r="F219" s="1">
+        <v>46050</v>
+      </c>
+      <c r="G219" s="1">
+        <v>46048</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A213" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A219" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5554,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558D729-657C-4990-A7AF-662C92360540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508ECD4-251B-4A4C-8E31-5FDAB1A430B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
@@ -5692,13 +5692,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508ECD4-251B-4A4C-8E31-5FDAB1A430B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FD8A0-3934-484A-851A-777B48075EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Medicoes" sheetId="2" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
   <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,6 +5523,12 @@
       <c r="D212" s="2">
         <v>238489.65</v>
       </c>
+      <c r="E212">
+        <v>332</v>
+      </c>
+      <c r="F212" s="1">
+        <v>46056</v>
+      </c>
       <c r="I212">
         <v>15490</v>
       </c>
@@ -5692,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D9FFEC-3CAE-4AB7-A169-AB095655BC86}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FD8A0-3934-484A-851A-777B48075EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F33D2-B5E8-49C1-A11B-668AAE6B98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,6 +5545,12 @@
       </c>
       <c r="D213" s="2">
         <v>35089.760000000002</v>
+      </c>
+      <c r="E213">
+        <v>332</v>
+      </c>
+      <c r="F213" s="1">
+        <v>46062</v>
       </c>
       <c r="I213">
         <v>15606</v>

--- a/NOVA_MEDICAO.xlsx
+++ b/NOVA_MEDICAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcos.brumatti\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F33D2-B5E8-49C1-A11B-668AAE6B98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637DB68-05F5-47F6-B64D-8A9CD0B9BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAC94D3E-ED44-400F-9804-ED3D5B3DD77A}"/>
   </bookViews>
@@ -674,10 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D790DDD-35AF-404B-9777-02841BFD5C41}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -745,7 +746,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -768,7 +769,7 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -791,7 +792,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -814,7 +815,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -840,7 +841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -866,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -892,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -918,7 +919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>45601</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>45526</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>45589</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>45527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>45646</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>45653</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>45649</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>45723</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>45744</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3060,7 +3061,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>45656</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>45650</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>45792</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>45799</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>45785</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>45786</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>13083</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>45790</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>45834</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>45841</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>13525</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>13747</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>13757</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>14111</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>14110</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>14221</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>12856</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>12857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>12859</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>12860</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>13337</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>14138</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>14477</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>14755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>14754</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>62</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>62</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>175544.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>62</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>223192.04</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>62</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>62</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>62</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>240746.47</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>62</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>458922.9</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>62</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>62</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>250778</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>62</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>250778.8</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>62</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>250777.04</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>62</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>250777</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>286649.17</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>62</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>62</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>262734.39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>14852</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>57</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>57532.81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>14994</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>15047</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>15076</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>46003</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>15173</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -5477,11 +5478,14 @@
       <c r="F210" s="1">
         <v>46050</v>
       </c>
+      <c r="G210" s="1">
+        <v>46065</v>
+      </c>
       <c r="I210">
         <v>15428</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>15416</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -5556,7 +5560,7 @@
         <v>15606</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>45973</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -5602,7 +5606,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>58</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>58</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>46051</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5699,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A219" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A219" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="028/2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
